--- a/data/brewster/102.xlsx
+++ b/data/brewster/102.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +481,15 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.195196e-08</v>
+        <v>1.022718e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1060061454772949</v>
+        <v>0.105006217956543</v>
       </c>
       <c r="B8" t="n">
-        <v>1.203743e-08</v>
+        <v>1.013741e-08</v>
       </c>
     </row>
     <row r="9">
@@ -497,55 +497,55 @@
         <v>0.2180125713348389</v>
       </c>
       <c r="B9" t="n">
-        <v>1.222601e-08</v>
+        <v>1.007062e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3030173778533936</v>
+        <v>0.3040175437927246</v>
       </c>
       <c r="B10" t="n">
-        <v>1.20437e-08</v>
+        <v>9.96744e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4040231704711914</v>
+        <v>0.4210240840911865</v>
       </c>
       <c r="B11" t="n">
-        <v>1.2209e-08</v>
+        <v>1.015079e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5060288906097412</v>
+        <v>0.5160295963287354</v>
       </c>
       <c r="B12" t="n">
-        <v>1.215668e-08</v>
+        <v>1.012721e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.60103440284729</v>
+        <v>0.6040346622467041</v>
       </c>
       <c r="B13" t="n">
-        <v>1.218628e-08</v>
+        <v>1.006646e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7060403823852539</v>
+        <v>0.7010402679443359</v>
       </c>
       <c r="B14" t="n">
-        <v>1.2025e-08</v>
+        <v>1.001919e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8140466213226318</v>
+        <v>0.8000459671020508</v>
       </c>
       <c r="B15" t="n">
-        <v>1.208652e-08</v>
+        <v>1.024584e-08</v>
       </c>
     </row>
     <row r="16">
@@ -553,7 +553,7 @@
         <v>0.9040517807006836</v>
       </c>
       <c r="B16" t="n">
-        <v>1.220969e-08</v>
+        <v>9.966967e-09</v>
       </c>
     </row>
     <row r="17">
@@ -561,167 +561,167 @@
         <v>1.001057386398315</v>
       </c>
       <c r="B17" t="n">
-        <v>1.213898e-08</v>
+        <v>1.010927e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.101063013076782</v>
+        <v>1.110063552856445</v>
       </c>
       <c r="B18" t="n">
-        <v>1.215768e-08</v>
+        <v>1.012599e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.203068733215332</v>
+        <v>1.217069625854492</v>
       </c>
       <c r="B19" t="n">
-        <v>1.214929e-08</v>
+        <v>1.020871e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.300074338912964</v>
+        <v>1.322075605392456</v>
       </c>
       <c r="B20" t="n">
-        <v>1.200383e-08</v>
+        <v>1.01617e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.40008020401001</v>
+        <v>1.412081003189087</v>
       </c>
       <c r="B21" t="n">
-        <v>1.202522e-08</v>
+        <v>1.007705e-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.505085945129395</v>
+        <v>1.506086111068726</v>
       </c>
       <c r="B22" t="n">
-        <v>1.226049e-08</v>
+        <v>9.919310000000001e-09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.602091550827026</v>
+        <v>1.607091903686523</v>
       </c>
       <c r="B23" t="n">
-        <v>1.217803e-08</v>
+        <v>9.954713e-09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.706097841262817</v>
+        <v>1.711097955703735</v>
       </c>
       <c r="B24" t="n">
-        <v>1.205323e-08</v>
+        <v>1.023598e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.81010365486145</v>
+        <v>1.807103633880615</v>
       </c>
       <c r="B25" t="n">
-        <v>1.217778e-08</v>
+        <v>9.969350000000001e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.902108669281006</v>
+        <v>1.909109354019165</v>
       </c>
       <c r="B26" t="n">
-        <v>1.218829e-08</v>
+        <v>1.006081e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.013115167617798</v>
+        <v>2.016115188598633</v>
       </c>
       <c r="B27" t="n">
-        <v>1.206022e-08</v>
+        <v>1.015716e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.105120420455933</v>
+        <v>2.107120513916016</v>
       </c>
       <c r="B28" t="n">
-        <v>1.220317e-08</v>
+        <v>9.942682e-09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.205126285552979</v>
+        <v>2.204126358032227</v>
       </c>
       <c r="B29" t="n">
-        <v>1.207569e-08</v>
+        <v>9.993163e-09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.31513237953186</v>
+        <v>2.313132286071777</v>
       </c>
       <c r="B30" t="n">
-        <v>1.210358e-08</v>
+        <v>1.023049e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.40413761138916</v>
+        <v>2.400137186050415</v>
       </c>
       <c r="B31" t="n">
-        <v>1.222035e-08</v>
+        <v>1.020855e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.50614333152771</v>
+        <v>2.503143310546875</v>
       </c>
       <c r="B32" t="n">
-        <v>1.205128e-08</v>
+        <v>9.982722e-09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.612149238586426</v>
+        <v>2.611149311065674</v>
       </c>
       <c r="B33" t="n">
-        <v>1.208952e-08</v>
+        <v>1.02126e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.708154916763306</v>
+        <v>2.707154750823975</v>
       </c>
       <c r="B34" t="n">
-        <v>1.203335e-08</v>
+        <v>1.001187e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.807160615921021</v>
+        <v>2.806160449981689</v>
       </c>
       <c r="B35" t="n">
-        <v>1.218963e-08</v>
+        <v>1.005751e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.911166429519653</v>
+        <v>2.907166242599487</v>
       </c>
       <c r="B36" t="n">
-        <v>1.202685e-08</v>
+        <v>9.939488999999999e-09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.01117205619812</v>
+        <v>3.010172128677368</v>
       </c>
       <c r="B37" t="n">
-        <v>1.197732e-08</v>
+        <v>1.002741e-08</v>
       </c>
     </row>
     <row r="38">
@@ -729,199 +729,199 @@
         <v>3.101177453994751</v>
       </c>
       <c r="B38" t="n">
-        <v>1.207271e-08</v>
+        <v>1.002707e-08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.202183246612549</v>
+        <v>3.212183952331543</v>
       </c>
       <c r="B39" t="n">
-        <v>1.217317e-08</v>
+        <v>1.009436e-08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.303188800811768</v>
+        <v>3.30518913269043</v>
       </c>
       <c r="B40" t="n">
-        <v>1.205028e-08</v>
+        <v>1.006875e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.404194593429565</v>
+        <v>3.404194831848145</v>
       </c>
       <c r="B41" t="n">
-        <v>1.214309e-08</v>
+        <v>1.003323e-08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.513200998306274</v>
+        <v>3.512201070785522</v>
       </c>
       <c r="B42" t="n">
-        <v>1.212006e-08</v>
+        <v>1.016684e-08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.604206085205078</v>
+        <v>3.602205991744995</v>
       </c>
       <c r="B43" t="n">
-        <v>1.215814e-08</v>
+        <v>1.01141e-08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.70821213722229</v>
+        <v>3.705211877822876</v>
       </c>
       <c r="B44" t="n">
-        <v>1.211642e-08</v>
+        <v>1.014548e-08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.815218210220337</v>
+        <v>3.814218282699585</v>
       </c>
       <c r="B45" t="n">
-        <v>1.198829e-08</v>
+        <v>1.023945e-08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.903223037719727</v>
+        <v>3.903223276138306</v>
       </c>
       <c r="B46" t="n">
-        <v>1.202407e-08</v>
+        <v>9.952328000000001e-09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.000228881835938</v>
+        <v>4.003228902816772</v>
       </c>
       <c r="B47" t="n">
-        <v>1.209787e-08</v>
+        <v>1.017306e-08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.101234674453735</v>
+        <v>4.112235307693481</v>
       </c>
       <c r="B48" t="n">
-        <v>1.220676e-08</v>
+        <v>1.00847e-08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.208240747451782</v>
+        <v>4.20724081993103</v>
       </c>
       <c r="B49" t="n">
-        <v>1.205481e-08</v>
+        <v>9.989506e-09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.30924654006958</v>
+        <v>4.308246612548828</v>
       </c>
       <c r="B50" t="n">
-        <v>1.205672e-08</v>
+        <v>1.01211e-08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.416252851486206</v>
+        <v>4.412252426147461</v>
       </c>
       <c r="B51" t="n">
-        <v>1.212009e-08</v>
+        <v>1.000681e-08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.50725793838501</v>
+        <v>4.506257772445679</v>
       </c>
       <c r="B52" t="n">
-        <v>1.229536e-08</v>
+        <v>9.884381e-09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.603263378143311</v>
+        <v>4.608263731002808</v>
       </c>
       <c r="B53" t="n">
-        <v>1.208936e-08</v>
+        <v>1.003892e-08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.700268983840942</v>
+        <v>4.711269617080688</v>
       </c>
       <c r="B54" t="n">
-        <v>1.205762e-08</v>
+        <v>1.022332e-08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.803274869918823</v>
+        <v>4.811275243759155</v>
       </c>
       <c r="B55" t="n">
-        <v>1.201718e-08</v>
+        <v>1.014861e-08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.902280569076538</v>
+        <v>4.907280683517456</v>
       </c>
       <c r="B56" t="n">
-        <v>1.208374e-08</v>
+        <v>9.94803e-09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.002286195755005</v>
+        <v>5.008286476135254</v>
       </c>
       <c r="B57" t="n">
-        <v>1.215149e-08</v>
+        <v>1.009834e-08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.106292009353638</v>
+        <v>5.120292901992798</v>
       </c>
       <c r="B58" t="n">
-        <v>1.206293e-08</v>
+        <v>9.99713e-09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.205297708511353</v>
+        <v>5.226299047470093</v>
       </c>
       <c r="B59" t="n">
-        <v>1.210339e-08</v>
+        <v>9.902988000000001e-09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.31330394744873</v>
+        <v>5.305303335189819</v>
       </c>
       <c r="B60" t="n">
-        <v>1.214016e-08</v>
+        <v>1.010688e-08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.40930962562561</v>
+        <v>5.406309127807617</v>
       </c>
       <c r="B61" t="n">
-        <v>1.211502e-08</v>
+        <v>9.90622e-09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.507314920425415</v>
+        <v>5.506314992904663</v>
       </c>
       <c r="B62" t="n">
-        <v>1.225808e-08</v>
+        <v>9.885708e-09</v>
       </c>
     </row>
     <row r="63">
@@ -929,175 +929,175 @@
         <v>5.610321044921875</v>
       </c>
       <c r="B63" t="n">
-        <v>1.218275e-08</v>
+        <v>1.019803e-08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.710326671600342</v>
+        <v>5.70832633972168</v>
       </c>
       <c r="B64" t="n">
-        <v>1.219663e-08</v>
+        <v>1.01101e-08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.800331830978394</v>
+        <v>5.807332038879395</v>
       </c>
       <c r="B65" t="n">
-        <v>1.208255e-08</v>
+        <v>1.002989e-08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.906337976455688</v>
+        <v>5.908338069915771</v>
       </c>
       <c r="B66" t="n">
-        <v>1.207813e-08</v>
+        <v>1.013044e-08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.007343769073486</v>
+        <v>6.015344142913818</v>
       </c>
       <c r="B67" t="n">
-        <v>1.222771e-08</v>
+        <v>1.01435e-08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.108349561691284</v>
+        <v>6.124350309371948</v>
       </c>
       <c r="B68" t="n">
-        <v>1.205934e-08</v>
+        <v>1.008978e-08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.21435546875</v>
+        <v>6.217355489730835</v>
       </c>
       <c r="B69" t="n">
-        <v>1.195085e-08</v>
+        <v>1.021062e-08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.304360628128052</v>
+        <v>6.307360887527466</v>
       </c>
       <c r="B70" t="n">
-        <v>1.211769e-08</v>
+        <v>9.960283e-09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.403366327285767</v>
+        <v>6.414366960525513</v>
       </c>
       <c r="B71" t="n">
-        <v>1.213059e-08</v>
+        <v>1.026514e-08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.511372327804565</v>
+        <v>6.518373012542725</v>
       </c>
       <c r="B72" t="n">
-        <v>1.199621e-08</v>
+        <v>1.01463e-08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.612378120422363</v>
+        <v>6.609378099441528</v>
       </c>
       <c r="B73" t="n">
-        <v>1.212345e-08</v>
+        <v>9.982338e-09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.70638370513916</v>
+        <v>6.723384618759155</v>
       </c>
       <c r="B74" t="n">
-        <v>1.203641e-08</v>
+        <v>9.932337999999999e-09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.816389799118042</v>
+        <v>6.812389612197876</v>
       </c>
       <c r="B75" t="n">
-        <v>1.187224e-08</v>
+        <v>1.004234e-08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.901394844055176</v>
+        <v>6.911395311355591</v>
       </c>
       <c r="B76" t="n">
-        <v>1.215819e-08</v>
+        <v>1.016518e-08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.008400678634644</v>
+        <v>7.021401643753052</v>
       </c>
       <c r="B77" t="n">
-        <v>1.204862e-08</v>
+        <v>9.996810000000001e-09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.116407155990601</v>
+        <v>7.124407529830933</v>
       </c>
       <c r="B78" t="n">
-        <v>1.188128e-08</v>
+        <v>1.010834e-08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.208412170410156</v>
+        <v>7.234413862228394</v>
       </c>
       <c r="B79" t="n">
-        <v>1.20524e-08</v>
+        <v>9.980685999999999e-09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.311418294906616</v>
+        <v>7.306417942047119</v>
       </c>
       <c r="B80" t="n">
-        <v>1.209895e-08</v>
+        <v>9.982713e-09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.417424201965332</v>
+        <v>7.415424108505249</v>
       </c>
       <c r="B81" t="n">
-        <v>1.194671e-08</v>
+        <v>1.003404e-08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.508429288864136</v>
+        <v>7.507429361343384</v>
       </c>
       <c r="B82" t="n">
-        <v>1.211757e-08</v>
+        <v>9.917759000000001e-09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.604434967041016</v>
+        <v>7.602434873580933</v>
       </c>
       <c r="B83" t="n">
-        <v>1.219137e-08</v>
+        <v>1.012607e-08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.70344066619873</v>
+        <v>7.705440759658813</v>
       </c>
       <c r="B84" t="n">
-        <v>1.202696e-08</v>
+        <v>1.010379e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1105,7 +1105,7 @@
         <v>7.809446811676025</v>
       </c>
       <c r="B85" t="n">
-        <v>1.217142e-08</v>
+        <v>1.001986e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1113,263 +1113,263 @@
         <v>7.900451898574829</v>
       </c>
       <c r="B86" t="n">
-        <v>1.203297e-08</v>
+        <v>1.013427e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.004457712173462</v>
+        <v>8.015458583831787</v>
       </c>
       <c r="B87" t="n">
-        <v>1.218753e-08</v>
+        <v>1.000942e-08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.110463857650757</v>
+        <v>8.107463836669922</v>
       </c>
       <c r="B88" t="n">
-        <v>1.224038e-08</v>
+        <v>1.000255e-08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.202469110488892</v>
+        <v>8.206469535827637</v>
       </c>
       <c r="B89" t="n">
-        <v>1.208024e-08</v>
+        <v>9.878144e-09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.315475463867188</v>
+        <v>8.316475629806519</v>
       </c>
       <c r="B90" t="n">
-        <v>1.210186e-08</v>
+        <v>1.01901e-08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.408480882644653</v>
+        <v>8.409481048583984</v>
       </c>
       <c r="B91" t="n">
-        <v>1.204635e-08</v>
+        <v>1.000384e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.512486934661865</v>
+        <v>8.524487733840942</v>
       </c>
       <c r="B92" t="n">
-        <v>1.214815e-08</v>
+        <v>1.01407e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.619493007659912</v>
+        <v>8.607492446899414</v>
       </c>
       <c r="B93" t="n">
-        <v>1.19263e-08</v>
+        <v>9.912701e-09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.701497793197632</v>
+        <v>8.711498260498047</v>
       </c>
       <c r="B94" t="n">
-        <v>1.21791e-08</v>
+        <v>1.017894e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.820504665374756</v>
+        <v>8.803503751754761</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21103e-08</v>
+        <v>9.947766999999999e-09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.930510997772217</v>
+        <v>8.914509773254395</v>
       </c>
       <c r="B96" t="n">
-        <v>1.207668e-08</v>
+        <v>1.020659e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.040517091751099</v>
+        <v>9.006515264511108</v>
       </c>
       <c r="B97" t="n">
-        <v>1.220597e-08</v>
+        <v>9.867991e-09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.125521898269653</v>
+        <v>9.108520984649658</v>
       </c>
       <c r="B98" t="n">
-        <v>1.206592e-08</v>
+        <v>1.002269e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.21252703666687</v>
+        <v>9.214527130126953</v>
       </c>
       <c r="B99" t="n">
-        <v>1.215724e-08</v>
+        <v>1.018978e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.310532331466675</v>
+        <v>9.304532289505005</v>
       </c>
       <c r="B100" t="n">
-        <v>1.226342e-08</v>
+        <v>9.945744e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.400537729263306</v>
+        <v>9.407538175582886</v>
       </c>
       <c r="B101" t="n">
-        <v>1.191993e-08</v>
+        <v>1.003618e-08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.504543542861938</v>
+        <v>9.514544248580933</v>
       </c>
       <c r="B102" t="n">
-        <v>1.224377e-08</v>
+        <v>1.023663e-08</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.607549428939819</v>
+        <v>9.602549314498901</v>
       </c>
       <c r="B103" t="n">
-        <v>1.206695e-08</v>
+        <v>1.009043e-08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.708555459976196</v>
+        <v>9.709555625915527</v>
       </c>
       <c r="B104" t="n">
-        <v>1.212e-08</v>
+        <v>9.994635999999999e-09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.81356143951416</v>
+        <v>9.814561605453491</v>
       </c>
       <c r="B105" t="n">
-        <v>1.214884e-08</v>
+        <v>9.984214000000001e-09</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.908566951751709</v>
+        <v>9.905566692352295</v>
       </c>
       <c r="B106" t="n">
-        <v>1.212438e-08</v>
+        <v>1.011562e-08</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.00757265090942</v>
+        <v>10.01357269287109</v>
       </c>
       <c r="B107" t="n">
-        <v>1.218391e-08</v>
+        <v>1.024649e-08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.11657857894897</v>
+        <v>10.11857867240906</v>
       </c>
       <c r="B108" t="n">
-        <v>1.200427e-08</v>
+        <v>1.010274e-08</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.20658397674561</v>
+        <v>10.20858407020569</v>
       </c>
       <c r="B109" t="n">
-        <v>1.215043e-08</v>
+        <v>9.887282e-09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.30458927154541</v>
+        <v>10.30258917808533</v>
       </c>
       <c r="B110" t="n">
-        <v>1.222795e-08</v>
+        <v>1.01705e-08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.41359567642212</v>
+        <v>10.40359497070312</v>
       </c>
       <c r="B111" t="n">
-        <v>1.215284e-08</v>
+        <v>9.956279e-09</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.50560092926025</v>
+        <v>10.50660109519958</v>
       </c>
       <c r="B112" t="n">
-        <v>1.219302e-08</v>
+        <v>9.919323e-09</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.6056067943573</v>
+        <v>10.60660672187805</v>
       </c>
       <c r="B113" t="n">
-        <v>1.206651e-08</v>
+        <v>9.901122e-09</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.71561288833618</v>
+        <v>10.71161270141602</v>
       </c>
       <c r="B114" t="n">
-        <v>1.218098e-08</v>
+        <v>9.999981999999999e-09</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.80761814117432</v>
+        <v>10.80661821365356</v>
       </c>
       <c r="B115" t="n">
-        <v>1.223882e-08</v>
+        <v>9.923627e-09</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.90762400627136</v>
+        <v>10.90662384033203</v>
       </c>
       <c r="B116" t="n">
-        <v>1.217239e-08</v>
+        <v>9.908063e-09</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.01162981987</v>
+        <v>11.01062989234924</v>
       </c>
       <c r="B117" t="n">
-        <v>1.204334e-08</v>
+        <v>1.016812e-08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.11863589286804</v>
+        <v>11.11863613128662</v>
       </c>
       <c r="B118" t="n">
-        <v>1.213445e-08</v>
+        <v>1.009647e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1377,47 +1377,47 @@
         <v>11.22564196586609</v>
       </c>
       <c r="B119" t="n">
-        <v>1.210361e-08</v>
+        <v>1.007283e-08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.31964731216431</v>
+        <v>11.30664682388306</v>
       </c>
       <c r="B120" t="n">
-        <v>1.199082e-08</v>
+        <v>9.911125e-09</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.40165209770203</v>
+        <v>11.41065263748169</v>
       </c>
       <c r="B121" t="n">
-        <v>1.201349e-08</v>
+        <v>1.002532e-08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.51565861701965</v>
+        <v>11.50065803527832</v>
       </c>
       <c r="B122" t="n">
-        <v>1.214327e-08</v>
+        <v>9.992217999999999e-09</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.61866450309753</v>
+        <v>11.61466431617737</v>
       </c>
       <c r="B123" t="n">
-        <v>1.195893e-08</v>
+        <v>1.013719e-08</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.70066928863525</v>
+        <v>11.70766949653625</v>
       </c>
       <c r="B124" t="n">
-        <v>1.207178e-08</v>
+        <v>1.002452e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1425,63 +1425,63 @@
         <v>11.80867528915405</v>
       </c>
       <c r="B125" t="n">
-        <v>1.209446e-08</v>
+        <v>9.964119999999999e-09</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.91668152809143</v>
+        <v>11.9136815071106</v>
       </c>
       <c r="B126" t="n">
-        <v>1.202288e-08</v>
+        <v>1.023724e-08</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.00868701934814</v>
+        <v>12.0046865940094</v>
       </c>
       <c r="B127" t="n">
-        <v>1.218077e-08</v>
+        <v>1.008691e-08</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.10369229316711</v>
+        <v>12.11069273948669</v>
       </c>
       <c r="B128" t="n">
-        <v>1.210377e-08</v>
+        <v>1.012326e-08</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.20969843864441</v>
+        <v>12.21669888496399</v>
       </c>
       <c r="B129" t="n">
-        <v>1.217775e-08</v>
+        <v>1.014876e-08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.32470488548279</v>
+        <v>12.30870413780212</v>
       </c>
       <c r="B130" t="n">
-        <v>1.215825e-08</v>
+        <v>1.00444e-08</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.42971086502075</v>
+        <v>12.41771030426025</v>
       </c>
       <c r="B131" t="n">
-        <v>1.219974e-08</v>
+        <v>1.016096e-08</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.50071501731873</v>
+        <v>12.51671600341797</v>
       </c>
       <c r="B132" t="n">
-        <v>1.194376e-08</v>
+        <v>1.017186e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1489,15 +1489,15 @@
         <v>12.6087212562561</v>
       </c>
       <c r="B133" t="n">
-        <v>1.211047e-08</v>
+        <v>1.007073e-08</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.70072627067566</v>
+        <v>12.72472786903381</v>
       </c>
       <c r="B134" t="n">
-        <v>1.198612e-08</v>
+        <v>1.005341e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1505,63 +1505,63 @@
         <v>12.8057324886322</v>
       </c>
       <c r="B135" t="n">
-        <v>1.209983e-08</v>
+        <v>1.011361e-08</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90873837471008</v>
+        <v>12.9117386341095</v>
       </c>
       <c r="B136" t="n">
-        <v>1.202006e-08</v>
+        <v>1.013228e-08</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.00974416732788</v>
+        <v>13.00074362754822</v>
       </c>
       <c r="B137" t="n">
-        <v>1.212963e-08</v>
+        <v>1.021025e-08</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.11575031280518</v>
+        <v>13.10974979400635</v>
       </c>
       <c r="B138" t="n">
-        <v>1.217854e-08</v>
+        <v>9.843036999999999e-09</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.2047553062439</v>
+        <v>13.22575640678406</v>
       </c>
       <c r="B139" t="n">
-        <v>1.222512e-08</v>
+        <v>9.910711000000001e-09</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.30476093292236</v>
+        <v>13.3307626247406</v>
       </c>
       <c r="B140" t="n">
-        <v>1.216662e-08</v>
+        <v>1.014483e-08</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.40576672554016</v>
+        <v>13.41976761817932</v>
       </c>
       <c r="B141" t="n">
-        <v>1.208197e-08</v>
+        <v>1.003201e-08</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.50977253913879</v>
+        <v>13.50977277755737</v>
       </c>
       <c r="B142" t="n">
-        <v>1.219604e-08</v>
+        <v>9.913984e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1569,79 +1569,79 @@
         <v>13.60177803039551</v>
       </c>
       <c r="B143" t="n">
-        <v>1.208121e-08</v>
+        <v>1.008349e-08</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.70278382301331</v>
+        <v>13.71478462219238</v>
       </c>
       <c r="B144" t="n">
-        <v>1.189634e-08</v>
+        <v>1.002984e-08</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.8037896156311</v>
+        <v>13.80678963661194</v>
       </c>
       <c r="B145" t="n">
-        <v>1.197802e-08</v>
+        <v>9.939248e-09</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.91579604148865</v>
+        <v>13.90579533576965</v>
       </c>
       <c r="B146" t="n">
-        <v>1.220323e-08</v>
+        <v>1.011755e-08</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.01980185508728</v>
+        <v>14.01580166816711</v>
       </c>
       <c r="B147" t="n">
-        <v>1.197848e-08</v>
+        <v>1.015902e-08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.101806640625</v>
+        <v>14.10980725288391</v>
       </c>
       <c r="B148" t="n">
-        <v>1.210278e-08</v>
+        <v>9.926454e-09</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.21081280708313</v>
+        <v>14.22481369972229</v>
       </c>
       <c r="B149" t="n">
-        <v>1.199037e-08</v>
+        <v>1.013021e-08</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.31781888008118</v>
+        <v>14.30781865119934</v>
       </c>
       <c r="B150" t="n">
-        <v>1.216859e-08</v>
+        <v>1.005888e-08</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.40082359313965</v>
+        <v>14.42582511901855</v>
       </c>
       <c r="B151" t="n">
-        <v>1.19966e-08</v>
+        <v>9.922118000000001e-09</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.52383089065552</v>
+        <v>14.51283025741577</v>
       </c>
       <c r="B152" t="n">
-        <v>1.217468e-08</v>
+        <v>1.004503e-08</v>
       </c>
     </row>
     <row r="153">
@@ -1649,463 +1649,463 @@
         <v>14.61983633041382</v>
       </c>
       <c r="B153" t="n">
-        <v>1.196025e-08</v>
+        <v>1.018379e-08</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.70184087753296</v>
+        <v>14.70284104347229</v>
       </c>
       <c r="B154" t="n">
-        <v>1.211503e-08</v>
+        <v>1.01767e-08</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.80984711647034</v>
+        <v>14.81684756278992</v>
       </c>
       <c r="B155" t="n">
-        <v>1.221321e-08</v>
+        <v>1.013975e-08</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.91685342788696</v>
+        <v>14.93485426902771</v>
       </c>
       <c r="B156" t="n">
-        <v>1.199122e-08</v>
+        <v>1.008085e-08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.00885844230652</v>
+        <v>15.03986024856567</v>
       </c>
       <c r="B157" t="n">
-        <v>1.209489e-08</v>
+        <v>1.005734e-08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.1068639755249</v>
+        <v>15.13086557388306</v>
       </c>
       <c r="B158" t="n">
-        <v>1.218323e-08</v>
+        <v>1.007893e-08</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.21687030792236</v>
+        <v>15.22387075424194</v>
       </c>
       <c r="B159" t="n">
-        <v>1.204547e-08</v>
+        <v>1.00284e-08</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.3088755607605</v>
+        <v>15.33487725257874</v>
       </c>
       <c r="B160" t="n">
-        <v>1.209217e-08</v>
+        <v>1.008493e-08</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.41288137435913</v>
+        <v>15.40788125991821</v>
       </c>
       <c r="B161" t="n">
-        <v>1.218293e-08</v>
+        <v>1.013913e-08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.51288747787476</v>
+        <v>15.51688766479492</v>
       </c>
       <c r="B162" t="n">
-        <v>1.223965e-08</v>
+        <v>1.007488e-08</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.61989331245422</v>
+        <v>15.60089254379272</v>
       </c>
       <c r="B163" t="n">
-        <v>1.204759e-08</v>
+        <v>1.003744e-08</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.72589945793152</v>
+        <v>15.71689915657043</v>
       </c>
       <c r="B164" t="n">
-        <v>1.207115e-08</v>
+        <v>1.023155e-08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.80790400505066</v>
+        <v>15.8239049911499</v>
       </c>
       <c r="B165" t="n">
-        <v>1.223904e-08</v>
+        <v>1.011305e-08</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.91491031646729</v>
+        <v>15.93591141700745</v>
       </c>
       <c r="B166" t="n">
-        <v>1.207569e-08</v>
+        <v>1.014276e-08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.02491664886475</v>
+        <v>16.00791549682617</v>
       </c>
       <c r="B167" t="n">
-        <v>1.208925e-08</v>
+        <v>1.013316e-08</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.10692119598389</v>
+        <v>16.11792182922363</v>
       </c>
       <c r="B168" t="n">
-        <v>1.222681e-08</v>
+        <v>1.008955e-08</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.21292734146118</v>
+        <v>16.20192670822144</v>
       </c>
       <c r="B169" t="n">
-        <v>1.216687e-08</v>
+        <v>1.016516e-08</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.30493259429932</v>
+        <v>16.3119330406189</v>
       </c>
       <c r="B170" t="n">
-        <v>1.204594e-08</v>
+        <v>9.917008e-09</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.41593885421753</v>
+        <v>16.42193913459778</v>
       </c>
       <c r="B171" t="n">
-        <v>1.214315e-08</v>
+        <v>1.020643e-08</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.508944272995</v>
+        <v>16.50594401359558</v>
       </c>
       <c r="B172" t="n">
-        <v>1.214576e-08</v>
+        <v>1.016011e-08</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60794997215271</v>
+        <v>16.62595105171204</v>
       </c>
       <c r="B173" t="n">
-        <v>1.218349e-08</v>
+        <v>1.009523e-08</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.71795606613159</v>
+        <v>16.70995593070984</v>
       </c>
       <c r="B174" t="n">
-        <v>1.218162e-08</v>
+        <v>9.950584999999999e-09</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.80496144294739</v>
+        <v>16.82096219062805</v>
       </c>
       <c r="B175" t="n">
-        <v>1.20696e-08</v>
+        <v>1.015652e-08</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90696716308594</v>
+        <v>16.91396737098694</v>
       </c>
       <c r="B176" t="n">
-        <v>1.210822e-08</v>
+        <v>1.021152e-08</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.01797342300415</v>
+        <v>17.01997375488281</v>
       </c>
       <c r="B177" t="n">
-        <v>1.209049e-08</v>
+        <v>1.01999e-08</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.11097860336304</v>
+        <v>17.10397839546204</v>
       </c>
       <c r="B178" t="n">
-        <v>1.213498e-08</v>
+        <v>1.003139e-08</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.2039840221405</v>
+        <v>17.21298456192017</v>
       </c>
       <c r="B179" t="n">
-        <v>1.204669e-08</v>
+        <v>1.003774e-08</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.31499052047729</v>
+        <v>17.31999063491821</v>
       </c>
       <c r="B180" t="n">
-        <v>1.220116e-08</v>
+        <v>9.990670999999999e-09</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.40799570083618</v>
+        <v>17.41199588775635</v>
       </c>
       <c r="B181" t="n">
-        <v>1.21011e-08</v>
+        <v>9.892946999999999e-09</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.50800132751465</v>
+        <v>17.51700210571289</v>
       </c>
       <c r="B182" t="n">
-        <v>1.217676e-08</v>
+        <v>1.006102e-08</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.61800765991211</v>
+        <v>17.63700890541077</v>
       </c>
       <c r="B183" t="n">
-        <v>1.213506e-08</v>
+        <v>1.006767e-08</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.70101261138916</v>
+        <v>17.73701453208923</v>
       </c>
       <c r="B184" t="n">
-        <v>1.203922e-08</v>
+        <v>1.014813e-08</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.81701898574829</v>
+        <v>17.81001877784729</v>
       </c>
       <c r="B185" t="n">
-        <v>1.202263e-08</v>
+        <v>1.010392e-08</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.92302513122559</v>
+        <v>17.91802501678467</v>
       </c>
       <c r="B186" t="n">
-        <v>1.199871e-08</v>
+        <v>1.011953e-08</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.02103066444397</v>
+        <v>18.00202989578247</v>
       </c>
       <c r="B187" t="n">
-        <v>1.216995e-08</v>
+        <v>1.009145e-08</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.13003706932068</v>
+        <v>18.11403632164001</v>
       </c>
       <c r="B188" t="n">
-        <v>1.222811e-08</v>
+        <v>1.017109e-08</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.2020411491394</v>
+        <v>18.22204208374023</v>
       </c>
       <c r="B189" t="n">
-        <v>1.196452e-08</v>
+        <v>1.017744e-08</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.30904722213745</v>
+        <v>18.32104778289795</v>
       </c>
       <c r="B190" t="n">
-        <v>1.207849e-08</v>
+        <v>1.005266e-08</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.40205240249634</v>
+        <v>18.42905426025391</v>
       </c>
       <c r="B191" t="n">
-        <v>1.214693e-08</v>
+        <v>9.977491e-09</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.51605892181396</v>
+        <v>18.50405836105347</v>
       </c>
       <c r="B192" t="n">
-        <v>1.21524e-08</v>
+        <v>1.012715e-08</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.60906457901001</v>
+        <v>18.61106467247009</v>
       </c>
       <c r="B193" t="n">
-        <v>1.220262e-08</v>
+        <v>1.015851e-08</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.71907043457031</v>
+        <v>18.7020697593689</v>
       </c>
       <c r="B194" t="n">
-        <v>1.219227e-08</v>
+        <v>1.017725e-08</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.82507681846619</v>
+        <v>18.80807590484619</v>
       </c>
       <c r="B195" t="n">
-        <v>1.192837e-08</v>
+        <v>1.017187e-08</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.93708324432373</v>
+        <v>18.92708253860474</v>
       </c>
       <c r="B196" t="n">
-        <v>1.205459e-08</v>
+        <v>1.008932e-08</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.01008725166321</v>
+        <v>19.03308868408203</v>
       </c>
       <c r="B197" t="n">
-        <v>1.221161e-08</v>
+        <v>1.009164e-08</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.11909365653992</v>
+        <v>19.13809466362</v>
       </c>
       <c r="B198" t="n">
-        <v>1.213372e-08</v>
+        <v>1.003782e-08</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.20209836959839</v>
+        <v>19.24310064315796</v>
       </c>
       <c r="B199" t="n">
-        <v>1.212709e-08</v>
+        <v>9.996825999999999e-09</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.31210446357727</v>
+        <v>19.3481068611145</v>
       </c>
       <c r="B200" t="n">
-        <v>1.207663e-08</v>
+        <v>1.01085e-08</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.42011070251465</v>
+        <v>19.4611132144928</v>
       </c>
       <c r="B201" t="n">
-        <v>1.201327e-08</v>
+        <v>1.021517e-08</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.50511574745178</v>
+        <v>19.56811928749084</v>
       </c>
       <c r="B202" t="n">
-        <v>1.196401e-08</v>
+        <v>1.010627e-08</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.61312198638916</v>
+        <v>19.64212346076965</v>
       </c>
       <c r="B203" t="n">
-        <v>1.218801e-08</v>
+        <v>1.022654e-08</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.72012782096863</v>
+        <v>19.75012969970703</v>
       </c>
       <c r="B204" t="n">
-        <v>1.206407e-08</v>
+        <v>1.020112e-08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.80313277244568</v>
+        <v>19.82313370704651</v>
       </c>
       <c r="B205" t="n">
-        <v>1.199008e-08</v>
+        <v>1.009325e-08</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90713858604431</v>
+        <v>19.93114018440247</v>
       </c>
       <c r="B206" t="n">
-        <v>1.205946e-08</v>
+        <v>1.022649e-08</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.01714491844177</v>
+        <v>20.02214527130127</v>
       </c>
       <c r="B207" t="n">
-        <v>1.209604e-08</v>
+        <v>1.020449e-08</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.10114979743958</v>
+        <v>20.12215089797974</v>
       </c>
       <c r="B208" t="n">
-        <v>1.207842e-08</v>
+        <v>1.022725e-08</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.21815633773804</v>
+        <v>20.23115730285645</v>
       </c>
       <c r="B209" t="n">
-        <v>1.218531e-08</v>
+        <v>9.990260000000001e-09</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.32616257667542</v>
+        <v>20.32616281509399</v>
       </c>
       <c r="B210" t="n">
-        <v>1.202726e-08</v>
+        <v>1.007571e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2113,327 +2113,327 @@
         <v>20.43816924095154</v>
       </c>
       <c r="B211" t="n">
-        <v>1.22104e-08</v>
+        <v>1.011722e-08</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.51117324829102</v>
+        <v>20.51417326927185</v>
       </c>
       <c r="B212" t="n">
-        <v>1.207062e-08</v>
+        <v>1.016544e-08</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.61917924880981</v>
+        <v>20.60317850112915</v>
       </c>
       <c r="B213" t="n">
-        <v>1.212658e-08</v>
+        <v>1.018602e-08</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.70218396186829</v>
+        <v>20.71118474006653</v>
       </c>
       <c r="B214" t="n">
-        <v>1.215462e-08</v>
+        <v>1.018876e-08</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.81219053268433</v>
+        <v>20.80218982696533</v>
       </c>
       <c r="B215" t="n">
-        <v>1.220314e-08</v>
+        <v>1.021097e-08</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.91919660568237</v>
+        <v>20.9021954536438</v>
       </c>
       <c r="B216" t="n">
-        <v>1.206015e-08</v>
+        <v>1.022023e-08</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.0032012462616</v>
+        <v>21.01020169258118</v>
       </c>
       <c r="B217" t="n">
-        <v>1.198989e-08</v>
+        <v>1.008479e-08</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.11820793151855</v>
+        <v>21.10420703887939</v>
       </c>
       <c r="B218" t="n">
-        <v>1.221656e-08</v>
+        <v>1.000249e-08</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.23721480369568</v>
+        <v>21.2182137966156</v>
       </c>
       <c r="B219" t="n">
-        <v>1.215989e-08</v>
+        <v>1.002027e-08</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.34322071075439</v>
+        <v>21.30321860313416</v>
       </c>
       <c r="B220" t="n">
-        <v>1.21792e-08</v>
+        <v>1.02248e-08</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.44922685623169</v>
+        <v>21.41922521591187</v>
       </c>
       <c r="B221" t="n">
-        <v>1.215897e-08</v>
+        <v>1.014335e-08</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.56723356246948</v>
+        <v>21.53823184967041</v>
       </c>
       <c r="B222" t="n">
-        <v>1.200515e-08</v>
+        <v>1.007496e-08</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.67423987388611</v>
+        <v>21.65823888778687</v>
       </c>
       <c r="B223" t="n">
-        <v>1.224192e-08</v>
+        <v>1.009837e-08</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.78624629974365</v>
+        <v>21.77824568748474</v>
       </c>
       <c r="B224" t="n">
-        <v>1.190552e-08</v>
+        <v>1.009871e-08</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.86125040054321</v>
+        <v>21.89825248718262</v>
       </c>
       <c r="B225" t="n">
-        <v>1.21438e-08</v>
+        <v>1.007982e-08</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.96925663948059</v>
+        <v>22.01225900650024</v>
       </c>
       <c r="B226" t="n">
-        <v>1.196518e-08</v>
+        <v>1.003366e-08</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.0432608127594</v>
+        <v>22.12126541137695</v>
       </c>
       <c r="B227" t="n">
-        <v>1.217219e-08</v>
+        <v>1.019622e-08</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.15126705169678</v>
+        <v>22.23527193069458</v>
       </c>
       <c r="B228" t="n">
-        <v>1.214465e-08</v>
+        <v>1.001078e-08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.22527122497559</v>
+        <v>22.30927586555481</v>
       </c>
       <c r="B229" t="n">
-        <v>1.217121e-08</v>
+        <v>1.001137e-08</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.33327746391296</v>
+        <v>22.41928243637085</v>
       </c>
       <c r="B230" t="n">
-        <v>1.212775e-08</v>
+        <v>1.006264e-08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.4322829246521</v>
+        <v>22.49428653717041</v>
       </c>
       <c r="B231" t="n">
-        <v>1.22129e-08</v>
+        <v>1.012068e-08</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.55429005622864</v>
+        <v>22.6052930355072</v>
       </c>
       <c r="B232" t="n">
-        <v>1.219202e-08</v>
+        <v>1.013824e-08</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.65329575538635</v>
+        <v>22.71529936790466</v>
       </c>
       <c r="B233" t="n">
-        <v>1.206664e-08</v>
+        <v>9.956511999999999e-09</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.75130152702332</v>
+        <v>22.78630328178406</v>
       </c>
       <c r="B234" t="n">
-        <v>1.212541e-08</v>
+        <v>1.014305e-08</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.82230544090271</v>
+        <v>22.89530968666077</v>
       </c>
       <c r="B235" t="n">
-        <v>1.205708e-08</v>
+        <v>9.959832000000001e-09</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.92831134796143</v>
+        <v>22.96731376647949</v>
       </c>
       <c r="B236" t="n">
-        <v>1.193323e-08</v>
+        <v>1.00464e-08</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.00931596755981</v>
+        <v>23.07531976699829</v>
       </c>
       <c r="B237" t="n">
-        <v>1.201877e-08</v>
+        <v>9.916739e-09</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.13232326507568</v>
+        <v>23.14732384681702</v>
       </c>
       <c r="B238" t="n">
-        <v>1.215746e-08</v>
+        <v>1.019395e-08</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.23932933807373</v>
+        <v>23.25633025169373</v>
       </c>
       <c r="B239" t="n">
-        <v>1.202424e-08</v>
+        <v>1.005752e-08</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.34633541107178</v>
+        <v>23.32733416557312</v>
       </c>
       <c r="B240" t="n">
-        <v>1.212602e-08</v>
+        <v>1.013735e-08</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.41633915901184</v>
+        <v>23.43634057044983</v>
       </c>
       <c r="B241" t="n">
-        <v>1.19662e-08</v>
+        <v>1.014293e-08</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.52534556388855</v>
+        <v>23.50734448432922</v>
       </c>
       <c r="B242" t="n">
-        <v>1.201181e-08</v>
+        <v>1.008981e-08</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.60635018348694</v>
+        <v>23.61635088920593</v>
       </c>
       <c r="B243" t="n">
-        <v>1.205322e-08</v>
+        <v>1.011088e-08</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.70835590362549</v>
+        <v>23.70835614204407</v>
       </c>
       <c r="B244" t="n">
-        <v>1.212085e-08</v>
+        <v>1.009354e-08</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23.8243625164032</v>
+        <v>23.80336165428162</v>
       </c>
       <c r="B245" t="n">
-        <v>1.216534e-08</v>
+        <v>1.017018e-08</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23.91736817359924</v>
+        <v>23.90536737442017</v>
       </c>
       <c r="B246" t="n">
-        <v>1.21142e-08</v>
+        <v>1.017338e-08</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.00837326049805</v>
+        <v>24.01137328147888</v>
       </c>
       <c r="B247" t="n">
-        <v>1.193998e-08</v>
+        <v>1.014146e-08</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.10637879371643</v>
+        <v>24.1033787727356</v>
       </c>
       <c r="B248" t="n">
-        <v>1.203069e-08</v>
+        <v>1.013161e-08</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.21538519859314</v>
+        <v>24.21338510513306</v>
       </c>
       <c r="B249" t="n">
-        <v>1.216377e-08</v>
+        <v>1.009217e-08</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.30539011955261</v>
+        <v>24.30939030647278</v>
       </c>
       <c r="B250" t="n">
-        <v>1.200086e-08</v>
+        <v>9.961373e-09</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.40539598464966</v>
+        <v>24.40139579772949</v>
       </c>
       <c r="B251" t="n">
-        <v>1.208184e-08</v>
+        <v>9.824155999999999e-09</v>
       </c>
     </row>
     <row r="252">
@@ -2441,71 +2441,71 @@
         <v>24.51440215110779</v>
       </c>
       <c r="B252" t="n">
-        <v>1.200544e-08</v>
+        <v>9.89463e-09</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.60440731048584</v>
+        <v>24.60740756988525</v>
       </c>
       <c r="B253" t="n">
-        <v>1.214805e-08</v>
+        <v>9.985508e-09</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.70041275024414</v>
+        <v>24.70941352844238</v>
       </c>
       <c r="B254" t="n">
-        <v>1.203857e-08</v>
+        <v>9.88243e-09</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.80141854286194</v>
+        <v>24.80641865730286</v>
       </c>
       <c r="B255" t="n">
-        <v>1.215375e-08</v>
+        <v>9.931522999999999e-09</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.90842485427856</v>
+        <v>24.91142511367798</v>
       </c>
       <c r="B256" t="n">
-        <v>1.19631e-08</v>
+        <v>1.010826e-08</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.00943040847778</v>
+        <v>25.00042986869812</v>
       </c>
       <c r="B257" t="n">
-        <v>1.204771e-08</v>
+        <v>1.000196e-08</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.11743664741516</v>
+        <v>25.10243582725525</v>
       </c>
       <c r="B258" t="n">
-        <v>1.207852e-08</v>
+        <v>1.002378e-08</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.2094419002533</v>
+        <v>25.20844197273254</v>
       </c>
       <c r="B259" t="n">
-        <v>1.207798e-08</v>
+        <v>9.911753e-09</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.32544851303101</v>
+        <v>25.30244708061218</v>
       </c>
       <c r="B260" t="n">
-        <v>1.200694e-08</v>
+        <v>9.918470999999999e-09</v>
       </c>
     </row>
     <row r="261">
@@ -2513,31 +2513,31 @@
         <v>25.41545367240906</v>
       </c>
       <c r="B261" t="n">
-        <v>1.21878e-08</v>
+        <v>9.957221e-09</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.50645899772644</v>
+        <v>25.50745892524719</v>
       </c>
       <c r="B262" t="n">
-        <v>1.213012e-08</v>
+        <v>1.006873e-08</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.6114649772644</v>
+        <v>25.60646462440491</v>
       </c>
       <c r="B263" t="n">
-        <v>1.194041e-08</v>
+        <v>9.979709000000001e-09</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.7174711227417</v>
+        <v>25.71647071838379</v>
       </c>
       <c r="B264" t="n">
-        <v>1.215308e-08</v>
+        <v>1.010321e-08</v>
       </c>
     </row>
     <row r="265">
@@ -2545,87 +2545,87 @@
         <v>25.80947613716125</v>
       </c>
       <c r="B265" t="n">
-        <v>1.208129e-08</v>
+        <v>9.961181e-09</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.90648174285889</v>
+        <v>25.92448282241821</v>
       </c>
       <c r="B266" t="n">
-        <v>1.220969e-08</v>
+        <v>1.005497e-08</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.00048732757568</v>
+        <v>26.00748753547668</v>
       </c>
       <c r="B267" t="n">
-        <v>1.222453e-08</v>
+        <v>9.963886000000001e-09</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.10949325561523</v>
+        <v>26.12949466705322</v>
       </c>
       <c r="B268" t="n">
-        <v>1.210794e-08</v>
+        <v>1.004017e-08</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.20149874687195</v>
+        <v>26.24550127983093</v>
       </c>
       <c r="B269" t="n">
-        <v>1.218057e-08</v>
+        <v>9.919736000000001e-09</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.30250453948975</v>
+        <v>26.35150718688965</v>
       </c>
       <c r="B270" t="n">
-        <v>1.220085e-08</v>
+        <v>1.001354e-08</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.40851044654846</v>
+        <v>26.44451260566711</v>
       </c>
       <c r="B271" t="n">
-        <v>1.221522e-08</v>
+        <v>1.000124e-08</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.50951647758484</v>
+        <v>26.55451893806458</v>
       </c>
       <c r="B272" t="n">
-        <v>1.215398e-08</v>
+        <v>1.002881e-08</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.61452221870422</v>
+        <v>26.6265230178833</v>
       </c>
       <c r="B273" t="n">
-        <v>1.208519e-08</v>
+        <v>1.008727e-08</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.70452737808228</v>
+        <v>26.70952796936035</v>
       </c>
       <c r="B274" t="n">
-        <v>1.226561e-08</v>
+        <v>9.944467e-09</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.80653309822083</v>
+        <v>26.80753326416016</v>
       </c>
       <c r="B275" t="n">
-        <v>1.210267e-08</v>
+        <v>1.003704e-08</v>
       </c>
     </row>
     <row r="276">
@@ -2633,7 +2633,7 @@
         <v>26.91653943061829</v>
       </c>
       <c r="B276" t="n">
-        <v>1.21964e-08</v>
+        <v>1.012189e-08</v>
       </c>
     </row>
     <row r="277">
@@ -2641,175 +2641,175 @@
         <v>27.008544921875</v>
       </c>
       <c r="B277" t="n">
-        <v>1.204134e-08</v>
+        <v>1.002631e-08</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.11255073547363</v>
+        <v>27.1045503616333</v>
       </c>
       <c r="B278" t="n">
-        <v>1.207594e-08</v>
+        <v>9.918449999999999e-09</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.21955704689026</v>
+        <v>27.21455669403076</v>
       </c>
       <c r="B279" t="n">
-        <v>1.203736e-08</v>
+        <v>9.970918000000001e-09</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.30156135559082</v>
+        <v>27.30756211280823</v>
       </c>
       <c r="B280" t="n">
-        <v>1.222003e-08</v>
+        <v>1.011073e-08</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.41556811332703</v>
+        <v>27.40656781196594</v>
       </c>
       <c r="B281" t="n">
-        <v>1.226724e-08</v>
+        <v>1.000609e-08</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.52157425880432</v>
+        <v>27.51657390594482</v>
       </c>
       <c r="B282" t="n">
-        <v>1.228084e-08</v>
+        <v>1.011709e-08</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.60357904434204</v>
+        <v>27.60957932472229</v>
       </c>
       <c r="B283" t="n">
-        <v>1.218964e-08</v>
+        <v>1.005614e-08</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.71058487892151</v>
+        <v>27.70458483695984</v>
       </c>
       <c r="B284" t="n">
-        <v>1.21058e-08</v>
+        <v>9.963266e-09</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.81859111785889</v>
+        <v>27.81559085845947</v>
       </c>
       <c r="B285" t="n">
-        <v>1.228559e-08</v>
+        <v>1.002377e-08</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.90059590339661</v>
+        <v>27.90759634971619</v>
       </c>
       <c r="B286" t="n">
-        <v>1.206754e-08</v>
+        <v>1.016779e-08</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.01560258865356</v>
+        <v>28.0016016960144</v>
       </c>
       <c r="B287" t="n">
-        <v>1.230268e-08</v>
+        <v>9.925849999999999e-09</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.12260842323303</v>
+        <v>28.10360741615295</v>
       </c>
       <c r="B288" t="n">
-        <v>1.214599e-08</v>
+        <v>9.917247e-09</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.21461391448975</v>
+        <v>28.20861339569092</v>
       </c>
       <c r="B289" t="n">
-        <v>1.203193e-08</v>
+        <v>1.019965e-08</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.31761956214905</v>
+        <v>28.30061888694763</v>
       </c>
       <c r="B290" t="n">
-        <v>1.222911e-08</v>
+        <v>9.980924999999999e-09</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.42262554168701</v>
+        <v>28.41562533378601</v>
       </c>
       <c r="B291" t="n">
-        <v>1.210924e-08</v>
+        <v>1.006229e-08</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.51563096046448</v>
+        <v>28.50763058662415</v>
       </c>
       <c r="B292" t="n">
-        <v>1.224252e-08</v>
+        <v>1.013281e-08</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.62663745880127</v>
+        <v>28.60463619232178</v>
       </c>
       <c r="B293" t="n">
-        <v>1.227504e-08</v>
+        <v>9.95261e-09</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.70964217185974</v>
+        <v>28.71364235877991</v>
       </c>
       <c r="B294" t="n">
-        <v>1.219628e-08</v>
+        <v>1.021955e-08</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.82664895057678</v>
+        <v>28.80764770507812</v>
       </c>
       <c r="B295" t="n">
-        <v>1.226222e-08</v>
+        <v>1.012118e-08</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.9326548576355</v>
+        <v>28.90065312385559</v>
       </c>
       <c r="B296" t="n">
-        <v>1.215968e-08</v>
+        <v>9.987076e-09</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.02566027641296</v>
+        <v>29.01565957069397</v>
       </c>
       <c r="B297" t="n">
-        <v>1.213019e-08</v>
+        <v>1.015683e-08</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.13566660881042</v>
+        <v>29.10866498947144</v>
       </c>
       <c r="B298" t="n">
-        <v>1.214387e-08</v>
+        <v>1.002292e-08</v>
       </c>
     </row>
     <row r="299">
@@ -2817,15 +2817,15 @@
         <v>29.20767068862915</v>
       </c>
       <c r="B299" t="n">
-        <v>1.20966e-08</v>
+        <v>1.014656e-08</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.31767678260803</v>
+        <v>29.31667685508728</v>
       </c>
       <c r="B300" t="n">
-        <v>1.218002e-08</v>
+        <v>1.020205e-08</v>
       </c>
     </row>
     <row r="301">
@@ -2833,863 +2833,863 @@
         <v>29.40968227386475</v>
       </c>
       <c r="B301" t="n">
-        <v>1.219151e-08</v>
+        <v>1.012443e-08</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.50768780708313</v>
+        <v>29.50368738174438</v>
       </c>
       <c r="B302" t="n">
-        <v>1.213928e-08</v>
+        <v>9.982180000000001e-09</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.61769413948059</v>
+        <v>29.60669350624084</v>
       </c>
       <c r="B303" t="n">
-        <v>1.225153e-08</v>
+        <v>9.939217e-09</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.70069885253906</v>
+        <v>29.71269941329956</v>
       </c>
       <c r="B304" t="n">
-        <v>1.216066e-08</v>
+        <v>1.001695e-08</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.81170511245728</v>
+        <v>29.80470490455627</v>
       </c>
       <c r="B305" t="n">
-        <v>1.201819e-08</v>
+        <v>1.006611e-08</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.91971135139465</v>
+        <v>29.91571140289307</v>
       </c>
       <c r="B306" t="n">
-        <v>1.214565e-08</v>
+        <v>1.005102e-08</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.00271606445312</v>
+        <v>30.00771641731262</v>
       </c>
       <c r="B307" t="n">
-        <v>1.206202e-08</v>
+        <v>1.003912e-08</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.10672211647034</v>
+        <v>30.12572312355042</v>
       </c>
       <c r="B308" t="n">
-        <v>1.220475e-08</v>
+        <v>9.915261e-09</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.21872854232788</v>
+        <v>30.20972800254822</v>
       </c>
       <c r="B309" t="n">
-        <v>1.227164e-08</v>
+        <v>9.983859e-09</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.3007333278656</v>
+        <v>30.33373498916626</v>
       </c>
       <c r="B310" t="n">
-        <v>1.2217e-08</v>
+        <v>1.002603e-08</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.41173958778381</v>
+        <v>30.40773916244507</v>
       </c>
       <c r="B311" t="n">
-        <v>1.214247e-08</v>
+        <v>1.002255e-08</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.51974558830261</v>
+        <v>30.51674556732178</v>
       </c>
       <c r="B312" t="n">
-        <v>1.210743e-08</v>
+        <v>1.01247e-08</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.60275053977966</v>
+        <v>30.60075044631958</v>
       </c>
       <c r="B313" t="n">
-        <v>1.206055e-08</v>
+        <v>1.022342e-08</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.70375609397888</v>
+        <v>30.71675705909729</v>
       </c>
       <c r="B314" t="n">
-        <v>1.208809e-08</v>
+        <v>1.02128e-08</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.80676198005676</v>
+        <v>30.80976223945618</v>
       </c>
       <c r="B315" t="n">
-        <v>1.220864e-08</v>
+        <v>9.999202000000001e-09</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.91376805305481</v>
+        <v>30.92676901817322</v>
       </c>
       <c r="B316" t="n">
-        <v>1.195158e-08</v>
+        <v>1.000274e-08</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.01777410507202</v>
+        <v>31.03177499771118</v>
       </c>
       <c r="B317" t="n">
-        <v>1.225683e-08</v>
+        <v>1.017357e-08</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.12378025054932</v>
+        <v>31.14478135108948</v>
       </c>
       <c r="B318" t="n">
-        <v>1.227723e-08</v>
+        <v>1.016398e-08</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.22378611564636</v>
+        <v>31.21778559684753</v>
       </c>
       <c r="B319" t="n">
-        <v>1.228341e-08</v>
+        <v>1.012669e-08</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.32179164886475</v>
+        <v>31.32679200172424</v>
       </c>
       <c r="B320" t="n">
-        <v>1.204259e-08</v>
+        <v>1.004198e-08</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.42779755592346</v>
+        <v>31.40079593658447</v>
       </c>
       <c r="B321" t="n">
-        <v>1.21135e-08</v>
+        <v>1.008653e-08</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.53880405426025</v>
+        <v>31.50980234146118</v>
       </c>
       <c r="B322" t="n">
-        <v>1.215846e-08</v>
+        <v>1.000179e-08</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.61180806159973</v>
+        <v>31.60280752182007</v>
       </c>
       <c r="B323" t="n">
-        <v>1.214361e-08</v>
+        <v>1.019176e-08</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.71981430053711</v>
+        <v>31.7168140411377</v>
       </c>
       <c r="B324" t="n">
-        <v>1.211885e-08</v>
+        <v>1.020498e-08</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.80281925201416</v>
+        <v>31.80981945991516</v>
       </c>
       <c r="B325" t="n">
-        <v>1.202516e-08</v>
+        <v>9.923426999999999e-09</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.91282534599304</v>
+        <v>31.90782499313354</v>
       </c>
       <c r="B326" t="n">
-        <v>1.220941e-08</v>
+        <v>1.002411e-08</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.02083158493042</v>
+        <v>32.01783156394958</v>
       </c>
       <c r="B327" t="n">
-        <v>1.228873e-08</v>
+        <v>1.009448e-08</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.10483646392822</v>
+        <v>32.10183596611023</v>
       </c>
       <c r="B328" t="n">
-        <v>1.227413e-08</v>
+        <v>1.007247e-08</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.20884227752686</v>
+        <v>32.21684288978577</v>
       </c>
       <c r="B329" t="n">
-        <v>1.206896e-08</v>
+        <v>1.02126e-08</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.31784844398499</v>
+        <v>32.32284879684448</v>
       </c>
       <c r="B330" t="n">
-        <v>1.217973e-08</v>
+        <v>1.019509e-08</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.40085339546204</v>
+        <v>32.42085456848145</v>
       </c>
       <c r="B331" t="n">
-        <v>1.223345e-08</v>
+        <v>1.008239e-08</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.5178599357605</v>
+        <v>32.52786064147949</v>
       </c>
       <c r="B332" t="n">
-        <v>1.220061e-08</v>
+        <v>1.009005e-08</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.62586617469788</v>
+        <v>32.60086488723755</v>
       </c>
       <c r="B333" t="n">
-        <v>1.223452e-08</v>
+        <v>1.002226e-08</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.73687243461609</v>
+        <v>32.70787072181702</v>
       </c>
       <c r="B334" t="n">
-        <v>1.213137e-08</v>
+        <v>1.007625e-08</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.80987644195557</v>
+        <v>32.80187630653381</v>
       </c>
       <c r="B335" t="n">
-        <v>1.22824e-08</v>
+        <v>1.019201e-08</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.91988277435303</v>
+        <v>32.91588282585144</v>
       </c>
       <c r="B336" t="n">
-        <v>1.21873e-08</v>
+        <v>1.018741e-08</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.00288772583008</v>
+        <v>33.00988817214966</v>
       </c>
       <c r="B337" t="n">
-        <v>1.208722e-08</v>
+        <v>9.980337999999999e-09</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.11289405822754</v>
+        <v>33.12289476394653</v>
       </c>
       <c r="B338" t="n">
-        <v>1.223445e-08</v>
+        <v>1.005897e-08</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.22190046310425</v>
+        <v>33.21889996528625</v>
       </c>
       <c r="B339" t="n">
-        <v>1.205272e-08</v>
+        <v>1.017247e-08</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.32090592384338</v>
+        <v>33.30190491676331</v>
       </c>
       <c r="B340" t="n">
-        <v>1.230686e-08</v>
+        <v>1.016149e-08</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.42891192436218</v>
+        <v>33.41191124916077</v>
       </c>
       <c r="B341" t="n">
-        <v>1.219562e-08</v>
+        <v>1.014503e-08</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.50191617012024</v>
+        <v>33.51991724967957</v>
       </c>
       <c r="B342" t="n">
-        <v>1.229565e-08</v>
+        <v>1.024016e-08</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.61092233657837</v>
+        <v>33.60292196273804</v>
       </c>
       <c r="B343" t="n">
-        <v>1.221931e-08</v>
+        <v>1.015308e-08</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.70392751693726</v>
+        <v>33.71192836761475</v>
       </c>
       <c r="B344" t="n">
-        <v>1.20932e-08</v>
+        <v>1.003696e-08</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.81693410873413</v>
+        <v>33.81993460655212</v>
       </c>
       <c r="B345" t="n">
-        <v>1.196163e-08</v>
+        <v>1.020673e-08</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.9099395275116</v>
+        <v>33.90293908119202</v>
       </c>
       <c r="B346" t="n">
-        <v>1.224084e-08</v>
+        <v>1.012503e-08</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00494503974915</v>
+        <v>34.00694513320923</v>
       </c>
       <c r="B347" t="n">
-        <v>1.224594e-08</v>
+        <v>9.952345e-09</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.11595153808594</v>
+        <v>34.11795163154602</v>
       </c>
       <c r="B348" t="n">
-        <v>1.213716e-08</v>
+        <v>9.979995000000001e-09</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.20995664596558</v>
+        <v>34.20195603370667</v>
       </c>
       <c r="B349" t="n">
-        <v>1.227285e-08</v>
+        <v>1.006601e-08</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30596232414246</v>
+        <v>34.31196260452271</v>
       </c>
       <c r="B350" t="n">
-        <v>1.214694e-08</v>
+        <v>1.000963e-08</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.41696858406067</v>
+        <v>34.41796875</v>
       </c>
       <c r="B351" t="n">
-        <v>1.198587e-08</v>
+        <v>1.009224e-08</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.50097346305847</v>
+        <v>34.5019736289978</v>
       </c>
       <c r="B352" t="n">
-        <v>1.214921e-08</v>
+        <v>1.0212e-08</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.61798000335693</v>
+        <v>34.62498044967651</v>
       </c>
       <c r="B353" t="n">
-        <v>1.215178e-08</v>
+        <v>1.020459e-08</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.72398614883423</v>
+        <v>34.70098495483398</v>
       </c>
       <c r="B354" t="n">
-        <v>1.223261e-08</v>
+        <v>1.012203e-08</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.82899212837219</v>
+        <v>34.80899095535278</v>
       </c>
       <c r="B355" t="n">
-        <v>1.22064e-08</v>
+        <v>9.994201e-09</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.94799900054932</v>
+        <v>34.90499663352966</v>
       </c>
       <c r="B356" t="n">
-        <v>1.211599e-08</v>
+        <v>1.012662e-08</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.05400490760803</v>
+        <v>35.01800298690796</v>
       </c>
       <c r="B357" t="n">
-        <v>1.213184e-08</v>
+        <v>1.000712e-08</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.16001105308533</v>
+        <v>35.10300779342651</v>
       </c>
       <c r="B358" t="n">
-        <v>1.226958e-08</v>
+        <v>1.023637e-08</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.27801775932312</v>
+        <v>35.21401429176331</v>
       </c>
       <c r="B359" t="n">
-        <v>1.209564e-08</v>
+        <v>1.018714e-08</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.398024559021</v>
+        <v>35.32302045822144</v>
       </c>
       <c r="B360" t="n">
-        <v>1.204277e-08</v>
+        <v>1.000608e-08</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.50403070449829</v>
+        <v>35.43602705001831</v>
       </c>
       <c r="B361" t="n">
-        <v>1.223204e-08</v>
+        <v>1.020436e-08</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.61703705787659</v>
+        <v>35.51003122329712</v>
       </c>
       <c r="B362" t="n">
-        <v>1.196361e-08</v>
+        <v>9.934062e-09</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.69104146957397</v>
+        <v>35.62103748321533</v>
       </c>
       <c r="B363" t="n">
-        <v>1.222017e-08</v>
+        <v>1.004187e-08</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.80204772949219</v>
+        <v>35.7160427570343</v>
       </c>
       <c r="B364" t="n">
-        <v>1.231628e-08</v>
+        <v>1.021318e-08</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.89405298233032</v>
+        <v>35.82804918289185</v>
       </c>
       <c r="B365" t="n">
-        <v>1.22134e-08</v>
+        <v>1.000893e-08</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.99905896186829</v>
+        <v>35.90305352210999</v>
       </c>
       <c r="B366" t="n">
-        <v>1.220908e-08</v>
+        <v>1.020561e-08</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.11806583404541</v>
+        <v>36.01205992698669</v>
       </c>
       <c r="B367" t="n">
-        <v>1.223287e-08</v>
+        <v>9.942311e-09</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.19307017326355</v>
+        <v>36.11206555366516</v>
       </c>
       <c r="B368" t="n">
-        <v>1.22219e-08</v>
+        <v>9.872505e-09</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.29307579994202</v>
+        <v>36.22107172012329</v>
       </c>
       <c r="B369" t="n">
-        <v>1.225256e-08</v>
+        <v>1.0164e-08</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.40308213233948</v>
+        <v>36.31607747077942</v>
       </c>
       <c r="B370" t="n">
-        <v>1.215348e-08</v>
+        <v>1.025994e-08</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.51008820533752</v>
+        <v>36.42808365821838</v>
       </c>
       <c r="B371" t="n">
-        <v>1.223253e-08</v>
+        <v>1.009653e-08</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.6280951499939</v>
+        <v>36.50308799743652</v>
       </c>
       <c r="B372" t="n">
-        <v>1.213799e-08</v>
+        <v>1.02497e-08</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.73410105705261</v>
+        <v>36.61309409141541</v>
       </c>
       <c r="B373" t="n">
-        <v>1.213068e-08</v>
+        <v>1.010679e-08</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.84710764884949</v>
+        <v>36.72610068321228</v>
       </c>
       <c r="B374" t="n">
-        <v>1.228572e-08</v>
+        <v>1.004089e-08</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.92111158370972</v>
+        <v>36.80110502243042</v>
       </c>
       <c r="B375" t="n">
-        <v>1.222443e-08</v>
+        <v>1.001709e-08</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>37.03011798858643</v>
+        <v>36.90611100196838</v>
       </c>
       <c r="B376" t="n">
-        <v>1.228529e-08</v>
+        <v>1.009373e-08</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.10412216186523</v>
+        <v>37.00911688804626</v>
       </c>
       <c r="B377" t="n">
-        <v>1.219141e-08</v>
+        <v>9.960056999999999e-09</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.21312856674194</v>
+        <v>37.11812305450439</v>
       </c>
       <c r="B378" t="n">
-        <v>1.215977e-08</v>
+        <v>1.007576e-08</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.31913447380066</v>
+        <v>37.20312786102295</v>
       </c>
       <c r="B379" t="n">
-        <v>1.204153e-08</v>
+        <v>1.023828e-08</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.43814134597778</v>
+        <v>37.31313443183899</v>
       </c>
       <c r="B380" t="n">
-        <v>1.216715e-08</v>
+        <v>1.011126e-08</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.54414749145508</v>
+        <v>37.42114043235779</v>
       </c>
       <c r="B381" t="n">
-        <v>1.209736e-08</v>
+        <v>1.015411e-08</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.65615391731262</v>
+        <v>37.51714587211609</v>
       </c>
       <c r="B382" t="n">
-        <v>1.206966e-08</v>
+        <v>1.024931e-08</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.73115801811218</v>
+        <v>37.62815237045288</v>
       </c>
       <c r="B383" t="n">
-        <v>1.20687e-08</v>
+        <v>9.971551999999999e-09</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.84116435050964</v>
+        <v>37.70315647125244</v>
       </c>
       <c r="B384" t="n">
-        <v>1.234754e-08</v>
+        <v>1.024675e-08</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.9141685962677</v>
+        <v>37.81116271018982</v>
       </c>
       <c r="B385" t="n">
-        <v>1.201267e-08</v>
+        <v>1.011831e-08</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>38.01917457580566</v>
+        <v>37.90616822242737</v>
       </c>
       <c r="B386" t="n">
-        <v>1.20304e-08</v>
+        <v>1.002914e-08</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.09117889404297</v>
+        <v>38.01917481422424</v>
       </c>
       <c r="B387" t="n">
-        <v>1.232186e-08</v>
+        <v>1.018522e-08</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.19818472862244</v>
+        <v>38.10317945480347</v>
       </c>
       <c r="B388" t="n">
-        <v>1.197449e-08</v>
+        <v>1.002271e-08</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.26918888092041</v>
+        <v>38.22618651390076</v>
       </c>
       <c r="B389" t="n">
-        <v>1.214858e-08</v>
+        <v>1.003059e-08</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.37719511985779</v>
+        <v>38.30119061470032</v>
       </c>
       <c r="B390" t="n">
-        <v>1.215465e-08</v>
+        <v>9.977223999999999e-09</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.44819927215576</v>
+        <v>38.4091968536377</v>
       </c>
       <c r="B391" t="n">
-        <v>1.219351e-08</v>
+        <v>9.990665999999999e-09</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.55620527267456</v>
+        <v>38.50420236587524</v>
       </c>
       <c r="B392" t="n">
-        <v>1.212301e-08</v>
+        <v>1.012469e-08</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.62820959091187</v>
+        <v>38.62420916557312</v>
       </c>
       <c r="B393" t="n">
-        <v>1.212121e-08</v>
+        <v>1.018893e-08</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.73721551895142</v>
+        <v>38.73821568489075</v>
       </c>
       <c r="B394" t="n">
-        <v>1.204216e-08</v>
+        <v>1.012795e-08</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.80821967124939</v>
+        <v>38.81221985816956</v>
       </c>
       <c r="B395" t="n">
-        <v>1.216033e-08</v>
+        <v>9.993674e-09</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.92322635650635</v>
+        <v>38.92222619056702</v>
       </c>
       <c r="B396" t="n">
-        <v>1.219397e-08</v>
+        <v>1.016203e-08</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.03423261642456</v>
+        <v>39.02323198318481</v>
       </c>
       <c r="B397" t="n">
-        <v>1.211509e-08</v>
+        <v>1.002172e-08</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.12623810768127</v>
+        <v>39.13323831558228</v>
       </c>
       <c r="B398" t="n">
-        <v>1.225265e-08</v>
+        <v>1.013438e-08</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.20824265480042</v>
+        <v>39.24624490737915</v>
       </c>
       <c r="B399" t="n">
-        <v>1.234976e-08</v>
+        <v>1.01273e-08</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.31424856185913</v>
+        <v>39.32124900817871</v>
       </c>
       <c r="B400" t="n">
-        <v>1.20323e-08</v>
+        <v>1.003645e-08</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.42425513267517</v>
+        <v>39.43125534057617</v>
       </c>
       <c r="B401" t="n">
-        <v>1.231673e-08</v>
+        <v>1.007506e-08</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.51626014709473</v>
+        <v>39.52626085281372</v>
       </c>
       <c r="B402" t="n">
-        <v>1.211031e-08</v>
+        <v>1.002919e-08</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.60826563835144</v>
+        <v>39.63826727867126</v>
       </c>
       <c r="B403" t="n">
-        <v>1.235207e-08</v>
+        <v>1.023728e-08</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70627117156982</v>
+        <v>39.72127175331116</v>
       </c>
       <c r="B404" t="n">
-        <v>1.219323e-08</v>
+        <v>1.001986e-08</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.81327724456787</v>
+        <v>39.84527897834778</v>
       </c>
       <c r="B405" t="n">
-        <v>1.224228e-08</v>
+        <v>1.006315e-08</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.92528367042542</v>
+        <v>39.9202835559845</v>
       </c>
       <c r="B406" t="n">
-        <v>1.207839e-08</v>
+        <v>1.004212e-08</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.03128957748413</v>
+        <v>40.02928948402405</v>
       </c>
       <c r="B407" t="n">
-        <v>1.219914e-08</v>
+        <v>1.01078e-08</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>40.12229490280151</v>
+        <v>40.10529398918152</v>
       </c>
       <c r="B408" t="n">
-        <v>1.208576e-08</v>
+        <v>1.01702e-08</v>
       </c>
     </row>
     <row r="409">
@@ -3697,495 +3697,495 @@
         <v>40.21430015563965</v>
       </c>
       <c r="B409" t="n">
-        <v>1.207795e-08</v>
+        <v>1.016104e-08</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>40.32530641555786</v>
+        <v>40.32730650901794</v>
       </c>
       <c r="B410" t="n">
-        <v>1.217431e-08</v>
+        <v>1.017755e-08</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>40.41531157493591</v>
+        <v>40.40331101417542</v>
       </c>
       <c r="B411" t="n">
-        <v>1.212834e-08</v>
+        <v>1.017523e-08</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>40.50731682777405</v>
+        <v>40.51431727409363</v>
       </c>
       <c r="B412" t="n">
-        <v>1.233327e-08</v>
+        <v>1.011506e-08</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>40.60532259941101</v>
+        <v>40.62832379341125</v>
       </c>
       <c r="B413" t="n">
-        <v>1.22004e-08</v>
+        <v>1.022191e-08</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>40.71632885932922</v>
+        <v>40.70332813262939</v>
       </c>
       <c r="B414" t="n">
-        <v>1.213916e-08</v>
+        <v>1.017832e-08</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>40.80833411216736</v>
+        <v>40.81233429908752</v>
       </c>
       <c r="B415" t="n">
-        <v>1.210343e-08</v>
+        <v>1.007244e-08</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>40.90733981132507</v>
+        <v>40.9203405380249</v>
       </c>
       <c r="B416" t="n">
-        <v>1.234495e-08</v>
+        <v>1.002601e-08</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>41.01734614372253</v>
+        <v>41.00634551048279</v>
       </c>
       <c r="B417" t="n">
-        <v>1.209538e-08</v>
+        <v>1.016281e-08</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>41.10035085678101</v>
+        <v>41.12435221672058</v>
       </c>
       <c r="B418" t="n">
-        <v>1.212236e-08</v>
+        <v>1.00832e-08</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>41.2113573551178</v>
+        <v>41.22835826873779</v>
       </c>
       <c r="B419" t="n">
-        <v>1.210198e-08</v>
+        <v>1.015597e-08</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>41.31636309623718</v>
+        <v>41.30436253547668</v>
       </c>
       <c r="B420" t="n">
-        <v>1.200957e-08</v>
+        <v>1.000943e-08</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>41.40836834907532</v>
+        <v>41.41336894035339</v>
       </c>
       <c r="B421" t="n">
-        <v>1.213453e-08</v>
+        <v>1.012623e-08</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>41.50537395477295</v>
+        <v>41.52737522125244</v>
       </c>
       <c r="B422" t="n">
-        <v>1.213446e-08</v>
+        <v>1.015428e-08</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>41.61638021469116</v>
+        <v>41.60237956047058</v>
       </c>
       <c r="B423" t="n">
-        <v>1.221727e-08</v>
+        <v>1.017243e-08</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>41.70838570594788</v>
+        <v>41.71238589286804</v>
       </c>
       <c r="B424" t="n">
-        <v>1.211272e-08</v>
+        <v>1.002692e-08</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>41.80139088630676</v>
+        <v>41.81439161300659</v>
       </c>
       <c r="B425" t="n">
-        <v>1.219883e-08</v>
+        <v>1.018911e-08</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>41.90439677238464</v>
+        <v>41.92439794540405</v>
       </c>
       <c r="B426" t="n">
-        <v>1.225445e-08</v>
+        <v>1.016855e-08</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>42.0074028968811</v>
+        <v>42.03840470314026</v>
       </c>
       <c r="B427" t="n">
-        <v>1.2328e-08</v>
+        <v>1.009818e-08</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>42.10040807723999</v>
+        <v>42.1154088973999</v>
       </c>
       <c r="B428" t="n">
-        <v>1.201454e-08</v>
+        <v>9.980051e-09</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>42.20841431617737</v>
+        <v>42.22441530227661</v>
       </c>
       <c r="B429" t="n">
-        <v>1.22292e-08</v>
+        <v>1.016552e-08</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>42.3074197769165</v>
+        <v>42.33842158317566</v>
       </c>
       <c r="B430" t="n">
-        <v>1.229979e-08</v>
+        <v>1.01512e-08</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>42.40042495727539</v>
+        <v>42.41442608833313</v>
       </c>
       <c r="B431" t="n">
-        <v>1.200243e-08</v>
+        <v>1.008048e-08</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>42.5024311542511</v>
+        <v>42.52343225479126</v>
       </c>
       <c r="B432" t="n">
-        <v>1.208473e-08</v>
+        <v>1.002464e-08</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>42.60843706130981</v>
+        <v>42.63743877410889</v>
       </c>
       <c r="B433" t="n">
-        <v>1.230847e-08</v>
+        <v>9.99403e-09</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>42.70044255256653</v>
+        <v>42.71344304084778</v>
       </c>
       <c r="B434" t="n">
-        <v>1.203913e-08</v>
+        <v>1.018312e-08</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>42.81644892692566</v>
+        <v>42.82244944572449</v>
       </c>
       <c r="B435" t="n">
-        <v>1.20094e-08</v>
+        <v>1.018626e-08</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>42.90945434570312</v>
+        <v>42.93045568466187</v>
       </c>
       <c r="B436" t="n">
-        <v>1.224424e-08</v>
+        <v>1.02359e-08</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>43.00845980644226</v>
+        <v>43.00645995140076</v>
       </c>
       <c r="B437" t="n">
-        <v>1.218635e-08</v>
+        <v>1.004636e-08</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>43.11846613883972</v>
+        <v>43.12046647071838</v>
       </c>
       <c r="B438" t="n">
-        <v>1.208985e-08</v>
+        <v>1.018545e-08</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>43.20147109031677</v>
+        <v>43.20547127723694</v>
       </c>
       <c r="B439" t="n">
-        <v>1.22449e-08</v>
+        <v>1.019722e-08</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>43.32447791099548</v>
+        <v>43.32747840881348</v>
       </c>
       <c r="B440" t="n">
-        <v>1.206071e-08</v>
+        <v>1.02237e-08</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>43.40848278999329</v>
+        <v>43.40448260307312</v>
       </c>
       <c r="B441" t="n">
-        <v>1.223189e-08</v>
+        <v>1.002221e-08</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>43.51348876953125</v>
+        <v>43.51448893547058</v>
       </c>
       <c r="B442" t="n">
-        <v>1.212293e-08</v>
+        <v>9.964074e-09</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>43.61749482154846</v>
+        <v>43.62849545478821</v>
       </c>
       <c r="B443" t="n">
-        <v>1.208999e-08</v>
+        <v>1.002164e-08</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>43.72350096702576</v>
+        <v>43.70549988746643</v>
       </c>
       <c r="B444" t="n">
-        <v>1.221867e-08</v>
+        <v>1.011455e-08</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>43.82150650024414</v>
+        <v>43.81450605392456</v>
       </c>
       <c r="B445" t="n">
-        <v>1.223051e-08</v>
+        <v>1.000583e-08</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>43.92751264572144</v>
+        <v>43.92851257324219</v>
       </c>
       <c r="B446" t="n">
-        <v>1.228389e-08</v>
+        <v>1.001815e-08</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>44.00951719284058</v>
+        <v>44.00451683998108</v>
       </c>
       <c r="B447" t="n">
-        <v>1.227016e-08</v>
+        <v>1.012091e-08</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>44.13452434539795</v>
+        <v>44.11352324485779</v>
       </c>
       <c r="B448" t="n">
-        <v>1.219235e-08</v>
+        <v>1.017025e-08</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>44.20752859115601</v>
+        <v>44.22752976417542</v>
       </c>
       <c r="B449" t="n">
-        <v>1.229671e-08</v>
+        <v>1.024143e-08</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>44.31853485107422</v>
+        <v>44.30353403091431</v>
       </c>
       <c r="B450" t="n">
-        <v>1.213838e-08</v>
+        <v>1.000111e-08</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>44.40153956413269</v>
+        <v>44.41354036331177</v>
       </c>
       <c r="B451" t="n">
-        <v>1.21741e-08</v>
+        <v>1.011262e-08</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>44.51754641532898</v>
+        <v>44.52154660224915</v>
       </c>
       <c r="B452" t="n">
-        <v>1.201453e-08</v>
+        <v>1.008547e-08</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>44.6235523223877</v>
+        <v>44.62555241584778</v>
       </c>
       <c r="B453" t="n">
-        <v>1.225242e-08</v>
+        <v>9.950572e-09</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>44.72155785560608</v>
+        <v>44.73555874824524</v>
       </c>
       <c r="B454" t="n">
-        <v>1.214265e-08</v>
+        <v>1.011886e-08</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>44.82956433296204</v>
+        <v>44.81156301498413</v>
       </c>
       <c r="B455" t="n">
-        <v>1.22796e-08</v>
+        <v>1.007552e-08</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>44.90256834030151</v>
+        <v>44.92156958580017</v>
       </c>
       <c r="B456" t="n">
-        <v>1.224163e-08</v>
+        <v>1.013194e-08</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>45.01057434082031</v>
+        <v>45.01657485961914</v>
       </c>
       <c r="B457" t="n">
-        <v>1.217398e-08</v>
+        <v>1.009729e-08</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>45.1015796661377</v>
+        <v>45.12758111953735</v>
       </c>
       <c r="B458" t="n">
-        <v>1.220887e-08</v>
+        <v>1.018327e-08</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>45.21458625793457</v>
+        <v>45.20158553123474</v>
       </c>
       <c r="B459" t="n">
-        <v>1.204711e-08</v>
+        <v>1.005854e-08</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>45.30359125137329</v>
+        <v>45.31059145927429</v>
       </c>
       <c r="B460" t="n">
-        <v>1.214535e-08</v>
+        <v>1.011345e-08</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>45.40859723091125</v>
+        <v>45.40359687805176</v>
       </c>
       <c r="B461" t="n">
-        <v>1.223076e-08</v>
+        <v>1.002219e-08</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>45.51660346984863</v>
+        <v>45.51760363578796</v>
       </c>
       <c r="B462" t="n">
-        <v>1.220829e-08</v>
+        <v>1.004209e-08</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>45.60660839080811</v>
+        <v>45.60060834884644</v>
       </c>
       <c r="B463" t="n">
-        <v>1.224681e-08</v>
+        <v>1.006402e-08</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>45.72361540794373</v>
+        <v>45.71361470222473</v>
       </c>
       <c r="B464" t="n">
-        <v>1.224252e-08</v>
+        <v>1.009521e-08</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>45.8186206817627</v>
+        <v>45.81962060928345</v>
       </c>
       <c r="B465" t="n">
-        <v>1.203607e-08</v>
+        <v>1.008614e-08</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>45.90962600708008</v>
+        <v>45.9026255607605</v>
       </c>
       <c r="B466" t="n">
-        <v>1.225021e-08</v>
+        <v>1.018556e-08</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>46.00363111495972</v>
+        <v>46.01363182067871</v>
       </c>
       <c r="B467" t="n">
-        <v>1.220586e-08</v>
+        <v>1.012121e-08</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>46.10363698005676</v>
+        <v>46.12263822555542</v>
       </c>
       <c r="B468" t="n">
-        <v>1.223734e-08</v>
+        <v>1.018116e-08</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>46.20864319801331</v>
+        <v>46.21664333343506</v>
       </c>
       <c r="B469" t="n">
-        <v>1.218683e-08</v>
+        <v>1.013196e-08</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>46.30964875221252</v>
+        <v>46.32764983177185</v>
       </c>
       <c r="B470" t="n">
-        <v>1.224067e-08</v>
+        <v>1.015437e-08</v>
       </c>
     </row>
     <row r="471">
@@ -4193,15 +4193,15 @@
         <v>46.40165400505066</v>
       </c>
       <c r="B471" t="n">
-        <v>1.227163e-08</v>
+        <v>1.003744e-08</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>46.50866007804871</v>
+        <v>46.50966024398804</v>
       </c>
       <c r="B472" t="n">
-        <v>1.217218e-08</v>
+        <v>1.000441e-08</v>
       </c>
     </row>
     <row r="473">
@@ -4209,1079 +4209,183 @@
         <v>46.60366582870483</v>
       </c>
       <c r="B473" t="n">
-        <v>1.220717e-08</v>
+        <v>1.01815e-08</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>46.70467138290405</v>
+        <v>46.71767234802246</v>
       </c>
       <c r="B474" t="n">
-        <v>1.225081e-08</v>
+        <v>1.006097e-08</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>46.80867743492126</v>
+        <v>46.80067682266235</v>
       </c>
       <c r="B475" t="n">
-        <v>1.217321e-08</v>
+        <v>9.912590000000001e-09</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>46.90968298912048</v>
+        <v>46.9126832485199</v>
       </c>
       <c r="B476" t="n">
-        <v>1.224066e-08</v>
+        <v>1.005172e-08</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>47.01368880271912</v>
+        <v>47.02168965339661</v>
       </c>
       <c r="B477" t="n">
-        <v>1.221797e-08</v>
+        <v>1.012633e-08</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>47.11169457435608</v>
+        <v>47.10569429397583</v>
       </c>
       <c r="B478" t="n">
-        <v>1.216714e-08</v>
+        <v>1.012338e-08</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>47.20069980621338</v>
+        <v>47.20570015907288</v>
       </c>
       <c r="B479" t="n">
-        <v>1.208689e-08</v>
+        <v>1.018474e-08</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>47.30170559883118</v>
+        <v>47.31670641899109</v>
       </c>
       <c r="B480" t="n">
-        <v>1.223844e-08</v>
+        <v>9.994402999999999e-09</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>47.40871167182922</v>
+        <v>47.40171122550964</v>
       </c>
       <c r="B481" t="n">
-        <v>1.219133e-08</v>
+        <v>1.001694e-08</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>47.50871729850769</v>
+        <v>47.51271772384644</v>
       </c>
       <c r="B482" t="n">
-        <v>1.210581e-08</v>
+        <v>1.01385e-08</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>47.61372327804565</v>
+        <v>47.62172389030457</v>
       </c>
       <c r="B483" t="n">
-        <v>1.223053e-08</v>
+        <v>1.001174e-08</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>47.70772862434387</v>
+        <v>47.71072912216187</v>
       </c>
       <c r="B484" t="n">
-        <v>1.228156e-08</v>
+        <v>1.018637e-08</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>47.80873465538025</v>
+        <v>47.8047342300415</v>
       </c>
       <c r="B485" t="n">
-        <v>1.211618e-08</v>
+        <v>1.00376e-08</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>47.91674065589905</v>
+        <v>47.91774082183838</v>
       </c>
       <c r="B486" t="n">
-        <v>1.197857e-08</v>
+        <v>9.983548e-09</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>48.00774598121643</v>
+        <v>48.00274562835693</v>
       </c>
       <c r="B487" t="n">
-        <v>1.232866e-08</v>
+        <v>1.01257e-08</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>48.11075186729431</v>
+        <v>48.11275196075439</v>
       </c>
       <c r="B488" t="n">
-        <v>1.205921e-08</v>
+        <v>1.00921e-08</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>48.21875786781311</v>
+        <v>48.22075796127319</v>
       </c>
       <c r="B489" t="n">
-        <v>1.216005e-08</v>
+        <v>9.90046e-09</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>48.30276274681091</v>
+        <v>48.31276345252991</v>
       </c>
       <c r="B490" t="n">
-        <v>1.216489e-08</v>
+        <v>1.013109e-08</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>48.40876889228821</v>
+        <v>48.42476987838745</v>
       </c>
       <c r="B491" t="n">
-        <v>1.218289e-08</v>
+        <v>1.095009e-08</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>48.51677489280701</v>
+        <v>48.50577449798584</v>
       </c>
       <c r="B492" t="n">
-        <v>1.197421e-08</v>
+        <v>1.158727e-08</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>48.60878038406372</v>
+        <v>48.6107804775238</v>
       </c>
       <c r="B493" t="n">
-        <v>1.211066e-08</v>
+        <v>1.23274e-08</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>48.71778655052185</v>
+        <v>48.71078610420227</v>
       </c>
       <c r="B494" t="n">
-        <v>1.199512e-08</v>
+        <v>1.320526e-08</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>48.82379245758057</v>
+        <v>48.8147919178009</v>
       </c>
       <c r="B495" t="n">
-        <v>1.231144e-08</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>48.9257984161377</v>
-      </c>
-      <c r="B496" t="n">
-        <v>1.209689e-08</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>49.02980446815491</v>
-      </c>
-      <c r="B497" t="n">
-        <v>1.231259e-08</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>49.10080862045288</v>
-      </c>
-      <c r="B498" t="n">
-        <v>1.208781e-08</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="n">
-        <v>49.20881462097168</v>
-      </c>
-      <c r="B499" t="n">
-        <v>1.211523e-08</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="n">
-        <v>49.3098201751709</v>
-      </c>
-      <c r="B500" t="n">
-        <v>1.227911e-08</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="n">
-        <v>49.41482639312744</v>
-      </c>
-      <c r="B501" t="n">
-        <v>1.21235e-08</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="n">
-        <v>49.50883173942566</v>
-      </c>
-      <c r="B502" t="n">
-        <v>1.216786e-08</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="n">
-        <v>49.60983753204346</v>
-      </c>
-      <c r="B503" t="n">
-        <v>1.231028e-08</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="n">
-        <v>49.7168436050415</v>
-      </c>
-      <c r="B504" t="n">
-        <v>1.198638e-08</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="n">
-        <v>49.80884885787964</v>
-      </c>
-      <c r="B505" t="n">
-        <v>1.212636e-08</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="n">
-        <v>49.9188551902771</v>
-      </c>
-      <c r="B506" t="n">
-        <v>1.200147e-08</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="n">
-        <v>50.02886152267456</v>
-      </c>
-      <c r="B507" t="n">
-        <v>1.219149e-08</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="n">
-        <v>50.13786792755127</v>
-      </c>
-      <c r="B508" t="n">
-        <v>1.209406e-08</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="n">
-        <v>50.20987200737</v>
-      </c>
-      <c r="B509" t="n">
-        <v>1.222519e-08</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="n">
-        <v>50.31687784194946</v>
-      </c>
-      <c r="B510" t="n">
-        <v>1.197529e-08</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="n">
-        <v>50.40888333320618</v>
-      </c>
-      <c r="B511" t="n">
-        <v>1.221019e-08</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="n">
-        <v>50.50988912582397</v>
-      </c>
-      <c r="B512" t="n">
-        <v>1.22592e-08</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="n">
-        <v>50.6188952922821</v>
-      </c>
-      <c r="B513" t="n">
-        <v>1.21704e-08</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="n">
-        <v>50.70089983940125</v>
-      </c>
-      <c r="B514" t="n">
-        <v>1.220671e-08</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="n">
-        <v>50.82390689849854</v>
-      </c>
-      <c r="B515" t="n">
-        <v>1.23028e-08</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="n">
-        <v>50.91391205787659</v>
-      </c>
-      <c r="B516" t="n">
-        <v>1.208441e-08</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="n">
-        <v>51.00691747665405</v>
-      </c>
-      <c r="B517" t="n">
-        <v>1.218477e-08</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="n">
-        <v>51.12492418289185</v>
-      </c>
-      <c r="B518" t="n">
-        <v>1.226545e-08</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="n">
-        <v>51.20692873001099</v>
-      </c>
-      <c r="B519" t="n">
-        <v>1.231142e-08</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="n">
-        <v>51.3109347820282</v>
-      </c>
-      <c r="B520" t="n">
-        <v>1.216051e-08</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="n">
-        <v>51.40294027328491</v>
-      </c>
-      <c r="B521" t="n">
-        <v>1.21008e-08</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="n">
-        <v>51.51594662666321</v>
-      </c>
-      <c r="B522" t="n">
-        <v>1.217935e-08</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="n">
-        <v>51.60895180702209</v>
-      </c>
-      <c r="B523" t="n">
-        <v>1.21754e-08</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="n">
-        <v>51.72595858573914</v>
-      </c>
-      <c r="B524" t="n">
-        <v>1.209753e-08</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="n">
-        <v>51.80896329879761</v>
-      </c>
-      <c r="B525" t="n">
-        <v>1.214452e-08</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="n">
-        <v>51.91596937179565</v>
-      </c>
-      <c r="B526" t="n">
-        <v>1.221978e-08</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="n">
-        <v>52.02697587013245</v>
-      </c>
-      <c r="B527" t="n">
-        <v>1.227254e-08</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="n">
-        <v>52.10898065567017</v>
-      </c>
-      <c r="B528" t="n">
-        <v>1.220297e-08</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="n">
-        <v>52.22598719596863</v>
-      </c>
-      <c r="B529" t="n">
-        <v>1.211826e-08</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="n">
-        <v>52.33099317550659</v>
-      </c>
-      <c r="B530" t="n">
-        <v>1.210606e-08</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="n">
-        <v>52.40299725532532</v>
-      </c>
-      <c r="B531" t="n">
-        <v>1.220149e-08</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="n">
-        <v>52.51000356674194</v>
-      </c>
-      <c r="B532" t="n">
-        <v>1.229827e-08</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="n">
-        <v>52.60300874710083</v>
-      </c>
-      <c r="B533" t="n">
-        <v>1.20933e-08</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="n">
-        <v>52.71701502799988</v>
-      </c>
-      <c r="B534" t="n">
-        <v>1.196924e-08</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="n">
-        <v>52.80001997947693</v>
-      </c>
-      <c r="B535" t="n">
-        <v>1.213271e-08</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="n">
-        <v>52.91602659225464</v>
-      </c>
-      <c r="B536" t="n">
-        <v>1.208585e-08</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="n">
-        <v>53.02203273773193</v>
-      </c>
-      <c r="B537" t="n">
-        <v>1.206835e-08</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="n">
-        <v>53.11503791809082</v>
-      </c>
-      <c r="B538" t="n">
-        <v>1.218815e-08</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="n">
-        <v>53.22604417800903</v>
-      </c>
-      <c r="B539" t="n">
-        <v>1.222827e-08</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="n">
-        <v>53.30904912948608</v>
-      </c>
-      <c r="B540" t="n">
-        <v>1.219988e-08</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="n">
-        <v>53.42605566978455</v>
-      </c>
-      <c r="B541" t="n">
-        <v>1.221969e-08</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="n">
-        <v>53.53206181526184</v>
-      </c>
-      <c r="B542" t="n">
-        <v>1.226091e-08</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="n">
-        <v>53.62506723403931</v>
-      </c>
-      <c r="B543" t="n">
-        <v>1.207031e-08</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="n">
-        <v>53.73707365989685</v>
-      </c>
-      <c r="B544" t="n">
-        <v>1.199302e-08</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="n">
-        <v>53.80907773971558</v>
-      </c>
-      <c r="B545" t="n">
-        <v>1.220884e-08</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="n">
-        <v>53.91808390617371</v>
-      </c>
-      <c r="B546" t="n">
-        <v>1.20927e-08</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="n">
-        <v>54.00008869171143</v>
-      </c>
-      <c r="B547" t="n">
-        <v>1.202647e-08</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="n">
-        <v>54.11109519004822</v>
-      </c>
-      <c r="B548" t="n">
-        <v>1.209671e-08</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="n">
-        <v>54.21510100364685</v>
-      </c>
-      <c r="B549" t="n">
-        <v>1.216376e-08</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="n">
-        <v>54.30910634994507</v>
-      </c>
-      <c r="B550" t="n">
-        <v>1.229311e-08</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="n">
-        <v>54.40511178970337</v>
-      </c>
-      <c r="B551" t="n">
-        <v>1.213236e-08</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="n">
-        <v>54.51711821556091</v>
-      </c>
-      <c r="B552" t="n">
-        <v>1.199117e-08</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="n">
-        <v>54.60012292861938</v>
-      </c>
-      <c r="B553" t="n">
-        <v>1.205018e-08</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="n">
-        <v>54.72413015365601</v>
-      </c>
-      <c r="B554" t="n">
-        <v>1.233936e-08</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="n">
-        <v>54.81613516807556</v>
-      </c>
-      <c r="B555" t="n">
-        <v>1.223394e-08</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="n">
-        <v>54.90914058685303</v>
-      </c>
-      <c r="B556" t="n">
-        <v>1.210889e-08</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="n">
-        <v>55.02614736557007</v>
-      </c>
-      <c r="B557" t="n">
-        <v>1.217463e-08</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="n">
-        <v>55.10815215110779</v>
-      </c>
-      <c r="B558" t="n">
-        <v>1.210037e-08</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="n">
-        <v>55.22715878486633</v>
-      </c>
-      <c r="B559" t="n">
-        <v>1.224742e-08</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="n">
-        <v>55.33116483688354</v>
-      </c>
-      <c r="B560" t="n">
-        <v>1.210388e-08</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="n">
-        <v>55.4041690826416</v>
-      </c>
-      <c r="B561" t="n">
-        <v>1.22259e-08</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="n">
-        <v>55.5121750831604</v>
-      </c>
-      <c r="B562" t="n">
-        <v>1.218445e-08</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="n">
-        <v>55.60518050193787</v>
-      </c>
-      <c r="B563" t="n">
-        <v>1.224121e-08</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="n">
-        <v>55.71618700027466</v>
-      </c>
-      <c r="B564" t="n">
-        <v>1.224001e-08</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="n">
-        <v>55.80919194221497</v>
-      </c>
-      <c r="B565" t="n">
-        <v>1.208235e-08</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="n">
-        <v>55.92619895935059</v>
-      </c>
-      <c r="B566" t="n">
-        <v>1.216464e-08</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="n">
-        <v>56.00020313262939</v>
-      </c>
-      <c r="B567" t="n">
-        <v>1.201077e-08</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="n">
-        <v>56.10920906066895</v>
-      </c>
-      <c r="B568" t="n">
-        <v>1.21119e-08</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="n">
-        <v>56.20121455192566</v>
-      </c>
-      <c r="B569" t="n">
-        <v>1.219709e-08</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="n">
-        <v>56.31722116470337</v>
-      </c>
-      <c r="B570" t="n">
-        <v>1.198434e-08</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="n">
-        <v>56.40022587776184</v>
-      </c>
-      <c r="B571" t="n">
-        <v>1.203722e-08</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="n">
-        <v>56.52523303031921</v>
-      </c>
-      <c r="B572" t="n">
-        <v>1.227128e-08</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="n">
-        <v>56.60823798179626</v>
-      </c>
-      <c r="B573" t="n">
-        <v>1.208578e-08</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="n">
-        <v>56.73424482345581</v>
-      </c>
-      <c r="B574" t="n">
-        <v>1.212866e-08</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="n">
-        <v>56.82625031471252</v>
-      </c>
-      <c r="B575" t="n">
-        <v>1.217337e-08</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="n">
-        <v>56.90825510025024</v>
-      </c>
-      <c r="B576" t="n">
-        <v>1.208842e-08</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="n">
-        <v>57.02126145362854</v>
-      </c>
-      <c r="B577" t="n">
-        <v>1.217752e-08</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="n">
-        <v>57.12926745414734</v>
-      </c>
-      <c r="B578" t="n">
-        <v>1.220821e-08</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="n">
-        <v>57.20227193832397</v>
-      </c>
-      <c r="B579" t="n">
-        <v>1.218079e-08</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="n">
-        <v>57.31027793884277</v>
-      </c>
-      <c r="B580" t="n">
-        <v>1.231192e-08</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="n">
-        <v>57.40328335762024</v>
-      </c>
-      <c r="B581" t="n">
-        <v>1.210754e-08</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="n">
-        <v>57.51728987693787</v>
-      </c>
-      <c r="B582" t="n">
-        <v>1.204345e-08</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="n">
-        <v>57.60129475593567</v>
-      </c>
-      <c r="B583" t="n">
-        <v>1.206817e-08</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="n">
-        <v>57.72430157661438</v>
-      </c>
-      <c r="B584" t="n">
-        <v>1.227164e-08</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="n">
-        <v>57.80830645561218</v>
-      </c>
-      <c r="B585" t="n">
-        <v>1.218144e-08</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="n">
-        <v>57.91631269454956</v>
-      </c>
-      <c r="B586" t="n">
-        <v>1.223592e-08</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="n">
-        <v>58.02731895446777</v>
-      </c>
-      <c r="B587" t="n">
-        <v>1.21543e-08</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="n">
-        <v>58.10132336616516</v>
-      </c>
-      <c r="B588" t="n">
-        <v>1.206058e-08</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="n">
-        <v>58.20732927322388</v>
-      </c>
-      <c r="B589" t="n">
-        <v>1.229266e-08</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="n">
-        <v>58.30033469200134</v>
-      </c>
-      <c r="B590" t="n">
-        <v>1.199226e-08</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="n">
-        <v>58.40334057807922</v>
-      </c>
-      <c r="B591" t="n">
-        <v>1.204751e-08</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="n">
-        <v>58.51034665107727</v>
-      </c>
-      <c r="B592" t="n">
-        <v>1.20869e-08</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="n">
-        <v>58.60635209083557</v>
-      </c>
-      <c r="B593" t="n">
-        <v>1.209712e-08</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="n">
-        <v>58.71835851669312</v>
-      </c>
-      <c r="B594" t="n">
-        <v>1.216837e-08</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="n">
-        <v>58.80136322975159</v>
-      </c>
-      <c r="B595" t="n">
-        <v>1.217531e-08</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="n">
-        <v>58.92537045478821</v>
-      </c>
-      <c r="B596" t="n">
-        <v>1.211036e-08</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="n">
-        <v>59.00837516784668</v>
-      </c>
-      <c r="B597" t="n">
-        <v>1.211022e-08</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="n">
-        <v>59.11638116836548</v>
-      </c>
-      <c r="B598" t="n">
-        <v>1.220226e-08</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="n">
-        <v>59.22738766670227</v>
-      </c>
-      <c r="B599" t="n">
-        <v>1.210962e-08</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="n">
-        <v>59.30139183998108</v>
-      </c>
-      <c r="B600" t="n">
-        <v>1.207974e-08</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="n">
-        <v>59.40939807891846</v>
-      </c>
-      <c r="B601" t="n">
-        <v>1.211917e-08</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="n">
-        <v>59.50240349769592</v>
-      </c>
-      <c r="B602" t="n">
-        <v>1.213161e-08</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="n">
-        <v>59.6174099445343</v>
-      </c>
-      <c r="B603" t="n">
-        <v>1.215274e-08</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="n">
-        <v>59.7014148235321</v>
-      </c>
-      <c r="B604" t="n">
-        <v>1.215387e-08</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="n">
-        <v>59.82542181015015</v>
-      </c>
-      <c r="B605" t="n">
-        <v>1.210794e-08</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="n">
-        <v>59.91642713546753</v>
-      </c>
-      <c r="B606" t="n">
-        <v>1.207294e-08</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="n">
-        <v>60.00043201446533</v>
-      </c>
-      <c r="B607" t="n">
-        <v>1.196667e-08</v>
+        <v>1.517769e-08</v>
       </c>
     </row>
   </sheetData>
